--- a/word_list.xlsx
+++ b/word_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860"/>
+    <workbookView windowWidth="24000" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="637">
   <si>
     <t>dog</t>
   </si>
@@ -1093,6 +1093,840 @@
   </si>
   <si>
     <t>报答,奖励</t>
+  </si>
+  <si>
+    <t>egg</t>
+  </si>
+  <si>
+    <t>鸡蛋</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>奶酪</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>面包</t>
+  </si>
+  <si>
+    <t>soup</t>
+  </si>
+  <si>
+    <t>汤</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>蛋糕</t>
+  </si>
+  <si>
+    <t>chicken</t>
+  </si>
+  <si>
+    <t>鸡肉</t>
+  </si>
+  <si>
+    <t>pork</t>
+  </si>
+  <si>
+    <t>猪肉</t>
+  </si>
+  <si>
+    <t>beef</t>
+  </si>
+  <si>
+    <t>牛肉</t>
+  </si>
+  <si>
+    <t>apple</t>
+  </si>
+  <si>
+    <t>苹果</t>
+  </si>
+  <si>
+    <t>banana</t>
+  </si>
+  <si>
+    <t>香蕉</t>
+  </si>
+  <si>
+    <t>橘子</t>
+  </si>
+  <si>
+    <t>lemon</t>
+  </si>
+  <si>
+    <t>柠檬</t>
+  </si>
+  <si>
+    <t>corn</t>
+  </si>
+  <si>
+    <t>玉米</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>大米</t>
+  </si>
+  <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>油</t>
+  </si>
+  <si>
+    <t>seed</t>
+  </si>
+  <si>
+    <t>种子</t>
+  </si>
+  <si>
+    <t>knife</t>
+  </si>
+  <si>
+    <t>刀子</t>
+  </si>
+  <si>
+    <t>spoon</t>
+  </si>
+  <si>
+    <t>勺子</t>
+  </si>
+  <si>
+    <t>fork</t>
+  </si>
+  <si>
+    <t>叉子</t>
+  </si>
+  <si>
+    <t>plate</t>
+  </si>
+  <si>
+    <t>盘子</t>
+  </si>
+  <si>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>被子</t>
+  </si>
+  <si>
+    <t>breakfast</t>
+  </si>
+  <si>
+    <t>早餐</t>
+  </si>
+  <si>
+    <t>lunch</t>
+  </si>
+  <si>
+    <t>午餐</t>
+  </si>
+  <si>
+    <t>dinner</t>
+  </si>
+  <si>
+    <t>晚餐</t>
+  </si>
+  <si>
+    <t>sugar</t>
+  </si>
+  <si>
+    <t>糖</t>
+  </si>
+  <si>
+    <t>salt</t>
+  </si>
+  <si>
+    <t>盐</t>
+  </si>
+  <si>
+    <t>bottle</t>
+  </si>
+  <si>
+    <t>瓶子</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>食物</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>桌子</t>
+  </si>
+  <si>
+    <t>chair</t>
+  </si>
+  <si>
+    <t>椅子</t>
+  </si>
+  <si>
+    <t>bed</t>
+  </si>
+  <si>
+    <t>床</t>
+  </si>
+  <si>
+    <t>dream</t>
+  </si>
+  <si>
+    <t>梦</t>
+  </si>
+  <si>
+    <t>window</t>
+  </si>
+  <si>
+    <t>窗口</t>
+  </si>
+  <si>
+    <t>door</t>
+  </si>
+  <si>
+    <t>门</t>
+  </si>
+  <si>
+    <t>bedroom</t>
+  </si>
+  <si>
+    <t>卧室</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>厨房</t>
+  </si>
+  <si>
+    <t>bathroom</t>
+  </si>
+  <si>
+    <t>浴室</t>
+  </si>
+  <si>
+    <t>pencil</t>
+  </si>
+  <si>
+    <t>铅笔</t>
+  </si>
+  <si>
+    <t>pen</t>
+  </si>
+  <si>
+    <t>笔</t>
+  </si>
+  <si>
+    <t>photograph</t>
+  </si>
+  <si>
+    <t>相片</t>
+  </si>
+  <si>
+    <t>soap</t>
+  </si>
+  <si>
+    <t>肥皂</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>书</t>
+  </si>
+  <si>
+    <t>page</t>
+  </si>
+  <si>
+    <t>页面</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>钥匙</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>油漆</t>
+  </si>
+  <si>
+    <t>letter</t>
+  </si>
+  <si>
+    <t>信件</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>笔记</t>
+  </si>
+  <si>
+    <t>wall</t>
+  </si>
+  <si>
+    <t>墙壁</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>纸张</t>
+  </si>
+  <si>
+    <t>floor</t>
+  </si>
+  <si>
+    <t>地板</t>
+  </si>
+  <si>
+    <t>ceiling</t>
+  </si>
+  <si>
+    <t>天花板</t>
+  </si>
+  <si>
+    <t>roof</t>
+  </si>
+  <si>
+    <t>屋顶</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>游泳池</t>
+  </si>
+  <si>
+    <t>lock</t>
+  </si>
+  <si>
+    <t>锁</t>
+  </si>
+  <si>
+    <t>telephone</t>
+  </si>
+  <si>
+    <t>电话</t>
+  </si>
+  <si>
+    <t>garden</t>
+  </si>
+  <si>
+    <t>花园</t>
+  </si>
+  <si>
+    <t>yard</t>
+  </si>
+  <si>
+    <t>院子</t>
+  </si>
+  <si>
+    <t>needle</t>
+  </si>
+  <si>
+    <t>针</t>
+  </si>
+  <si>
+    <t>bag</t>
+  </si>
+  <si>
+    <t>包</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>盒子</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>礼物</t>
+  </si>
+  <si>
+    <t>card</t>
+  </si>
+  <si>
+    <t>卡片</t>
+  </si>
+  <si>
+    <t>ring</t>
+  </si>
+  <si>
+    <t>戒指</t>
+  </si>
+  <si>
+    <t>tool</t>
+  </si>
+  <si>
+    <t>工具</t>
+  </si>
+  <si>
+    <t>clock</t>
+  </si>
+  <si>
+    <t>时钟</t>
+  </si>
+  <si>
+    <t>lamp</t>
+  </si>
+  <si>
+    <t>电灯</t>
+  </si>
+  <si>
+    <t>风扇</t>
+  </si>
+  <si>
+    <t>cell phone</t>
+  </si>
+  <si>
+    <t>手机</t>
+  </si>
+  <si>
+    <t>network</t>
+  </si>
+  <si>
+    <t>网络</t>
+  </si>
+  <si>
+    <t>computer</t>
+  </si>
+  <si>
+    <t>电脑</t>
+  </si>
+  <si>
+    <t>program(computer)</t>
+  </si>
+  <si>
+    <t>电脑程序</t>
+  </si>
+  <si>
+    <t>laptop</t>
+  </si>
+  <si>
+    <t>笔记本电脑</t>
+  </si>
+  <si>
+    <t>screen</t>
+  </si>
+  <si>
+    <t>屏幕</t>
+  </si>
+  <si>
+    <t>camera</t>
+  </si>
+  <si>
+    <t>照相机</t>
+  </si>
+  <si>
+    <t>television</t>
+  </si>
+  <si>
+    <t>电视机</t>
+  </si>
+  <si>
+    <t>radio</t>
+  </si>
+  <si>
+    <t>收音机</t>
+  </si>
+  <si>
+    <t>head</t>
+  </si>
+  <si>
+    <t>头</t>
+  </si>
+  <si>
+    <t>neck</t>
+  </si>
+  <si>
+    <t>脖子</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>脸</t>
+  </si>
+  <si>
+    <t>beard</t>
+  </si>
+  <si>
+    <t>胡子</t>
+  </si>
+  <si>
+    <t>hair</t>
+  </si>
+  <si>
+    <t>头发</t>
+  </si>
+  <si>
+    <t>eye</t>
+  </si>
+  <si>
+    <t>眼睛</t>
+  </si>
+  <si>
+    <t>mouth</t>
+  </si>
+  <si>
+    <t>嘴巴</t>
+  </si>
+  <si>
+    <t>lip</t>
+  </si>
+  <si>
+    <t>嘴唇</t>
+  </si>
+  <si>
+    <t>nose</t>
+  </si>
+  <si>
+    <t>鼻子</t>
+  </si>
+  <si>
+    <t>tooth</t>
+  </si>
+  <si>
+    <t>牙齿</t>
+  </si>
+  <si>
+    <t>ear</t>
+  </si>
+  <si>
+    <t>耳朵</t>
+  </si>
+  <si>
+    <t>tear</t>
+  </si>
+  <si>
+    <t>眼泪</t>
+  </si>
+  <si>
+    <t>tongue</t>
+  </si>
+  <si>
+    <t>舌头</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>背部</t>
+  </si>
+  <si>
+    <t>toe</t>
+  </si>
+  <si>
+    <t>脚趾头</t>
+  </si>
+  <si>
+    <t>finger</t>
+  </si>
+  <si>
+    <t>手指</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>脚</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>手</t>
+  </si>
+  <si>
+    <t>leg</t>
+  </si>
+  <si>
+    <t>腿</t>
+  </si>
+  <si>
+    <t>arm</t>
+  </si>
+  <si>
+    <t>手臂</t>
+  </si>
+  <si>
+    <t>shoulder</t>
+  </si>
+  <si>
+    <t>肩膀</t>
+  </si>
+  <si>
+    <t>heart</t>
+  </si>
+  <si>
+    <t>心脏</t>
+  </si>
+  <si>
+    <t>blood</t>
+  </si>
+  <si>
+    <t>血液</t>
+  </si>
+  <si>
+    <t>brain</t>
+  </si>
+  <si>
+    <t>大脑</t>
+  </si>
+  <si>
+    <t>knee</t>
+  </si>
+  <si>
+    <t>膝盖</t>
+  </si>
+  <si>
+    <t>sweat</t>
+  </si>
+  <si>
+    <t>汗液</t>
+  </si>
+  <si>
+    <t>disease</t>
+  </si>
+  <si>
+    <t>疾病</t>
+  </si>
+  <si>
+    <t>bone</t>
+  </si>
+  <si>
+    <t>骨头</t>
+  </si>
+  <si>
+    <t>voice</t>
+  </si>
+  <si>
+    <t>声音</t>
+  </si>
+  <si>
+    <t>skin</t>
+  </si>
+  <si>
+    <t>皮肤</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>身体</t>
+  </si>
+  <si>
+    <t>sea</t>
+  </si>
+  <si>
+    <t>海</t>
+  </si>
+  <si>
+    <t>ocean</t>
+  </si>
+  <si>
+    <t>海洋</t>
+  </si>
+  <si>
+    <t>river</t>
+  </si>
+  <si>
+    <t>河</t>
+  </si>
+  <si>
+    <t>mountain</t>
+  </si>
+  <si>
+    <t>山</t>
+  </si>
+  <si>
+    <t>rain</t>
+  </si>
+  <si>
+    <t>雨</t>
+  </si>
+  <si>
+    <t>snow</t>
+  </si>
+  <si>
+    <t>雪</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>树</t>
+  </si>
+  <si>
+    <t>sun</t>
+  </si>
+  <si>
+    <t>太阳</t>
+  </si>
+  <si>
+    <t>moon</t>
+  </si>
+  <si>
+    <t>月亮</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>世界</t>
+  </si>
+  <si>
+    <t>earth</t>
+  </si>
+  <si>
+    <t>地球</t>
+  </si>
+  <si>
+    <t>forest</t>
+  </si>
+  <si>
+    <t>森林</t>
+  </si>
+  <si>
+    <t>sky</t>
+  </si>
+  <si>
+    <t>天空</t>
+  </si>
+  <si>
+    <t>plant</t>
+  </si>
+  <si>
+    <t>植物</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>风</t>
+  </si>
+  <si>
+    <t>soil</t>
+  </si>
+  <si>
+    <t>土地</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
+    <t>花</t>
+  </si>
+  <si>
+    <t>valley</t>
+  </si>
+  <si>
+    <t>山谷</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>根</t>
+  </si>
+  <si>
+    <t>lake</t>
+  </si>
+  <si>
+    <t>湖</t>
+  </si>
+  <si>
+    <t>star</t>
+  </si>
+  <si>
+    <t>星星</t>
+  </si>
+  <si>
+    <t>grass</t>
+  </si>
+  <si>
+    <t>草</t>
+  </si>
+  <si>
+    <t>leaf</t>
+  </si>
+  <si>
+    <t>叶子</t>
+  </si>
+  <si>
+    <t>air</t>
+  </si>
+  <si>
+    <t>空气</t>
+  </si>
+  <si>
+    <t>sand</t>
+  </si>
+  <si>
+    <t>沙子</t>
+  </si>
+  <si>
+    <t>beach</t>
+  </si>
+  <si>
+    <t>海滩</t>
+  </si>
+  <si>
+    <t>wave</t>
+  </si>
+  <si>
+    <t>波浪</t>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
+    <t>或</t>
+  </si>
+  <si>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>冰</t>
+  </si>
+  <si>
+    <t>island</t>
+  </si>
+  <si>
+    <t>岛屿</t>
+  </si>
+  <si>
+    <t>hill</t>
+  </si>
+  <si>
+    <t>山丘</t>
+  </si>
+  <si>
+    <t>heat</t>
+  </si>
+  <si>
+    <t>热量</t>
+  </si>
+  <si>
+    <t>nature</t>
+  </si>
+  <si>
+    <t>大自然</t>
   </si>
 </sst>
 </file>
@@ -1100,10 +1934,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1122,13 +1956,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1138,21 +1965,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1174,7 +1986,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1185,6 +2005,43 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1206,37 +2063,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1267,37 +2101,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1315,61 +2125,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1387,13 +2149,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1411,13 +2179,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1429,13 +2191,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1447,7 +2203,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1476,21 +2310,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1515,20 +2334,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1540,6 +2356,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1558,6 +2383,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1566,10 +2400,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1578,19 +2412,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1599,112 +2433,112 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2060,15 +2894,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B181"/>
+  <dimension ref="A1:B321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="B174" sqref="B174"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="B182" sqref="B182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="19.25" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="15.25" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
@@ -3520,6 +4354,1126 @@
       </c>
       <c r="B181" t="s">
         <v>358</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" t="s">
+        <v>359</v>
+      </c>
+      <c r="B182" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" t="s">
+        <v>361</v>
+      </c>
+      <c r="B183" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" t="s">
+        <v>363</v>
+      </c>
+      <c r="B184" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" t="s">
+        <v>365</v>
+      </c>
+      <c r="B185" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" t="s">
+        <v>367</v>
+      </c>
+      <c r="B186" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" t="s">
+        <v>369</v>
+      </c>
+      <c r="B187" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" t="s">
+        <v>371</v>
+      </c>
+      <c r="B188" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" t="s">
+        <v>373</v>
+      </c>
+      <c r="B189" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" t="s">
+        <v>375</v>
+      </c>
+      <c r="B190" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" t="s">
+        <v>377</v>
+      </c>
+      <c r="B191" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" t="s">
+        <v>143</v>
+      </c>
+      <c r="B192" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" t="s">
+        <v>380</v>
+      </c>
+      <c r="B193" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" t="s">
+        <v>382</v>
+      </c>
+      <c r="B194" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" t="s">
+        <v>384</v>
+      </c>
+      <c r="B195" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" t="s">
+        <v>386</v>
+      </c>
+      <c r="B196" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" t="s">
+        <v>388</v>
+      </c>
+      <c r="B197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" t="s">
+        <v>390</v>
+      </c>
+      <c r="B198" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" t="s">
+        <v>392</v>
+      </c>
+      <c r="B199" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" t="s">
+        <v>394</v>
+      </c>
+      <c r="B200" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" t="s">
+        <v>396</v>
+      </c>
+      <c r="B201" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" t="s">
+        <v>398</v>
+      </c>
+      <c r="B202" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" t="s">
+        <v>400</v>
+      </c>
+      <c r="B203" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" t="s">
+        <v>402</v>
+      </c>
+      <c r="B204" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" t="s">
+        <v>404</v>
+      </c>
+      <c r="B205" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" t="s">
+        <v>406</v>
+      </c>
+      <c r="B206" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" t="s">
+        <v>408</v>
+      </c>
+      <c r="B207" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" t="s">
+        <v>410</v>
+      </c>
+      <c r="B208" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" t="s">
+        <v>412</v>
+      </c>
+      <c r="B209" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" t="s">
+        <v>414</v>
+      </c>
+      <c r="B210" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" t="s">
+        <v>416</v>
+      </c>
+      <c r="B211" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" t="s">
+        <v>418</v>
+      </c>
+      <c r="B212" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" t="s">
+        <v>420</v>
+      </c>
+      <c r="B213" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" t="s">
+        <v>422</v>
+      </c>
+      <c r="B214" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" t="s">
+        <v>424</v>
+      </c>
+      <c r="B215" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" t="s">
+        <v>426</v>
+      </c>
+      <c r="B216" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" t="s">
+        <v>428</v>
+      </c>
+      <c r="B217" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" t="s">
+        <v>430</v>
+      </c>
+      <c r="B218" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" t="s">
+        <v>432</v>
+      </c>
+      <c r="B219" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" t="s">
+        <v>434</v>
+      </c>
+      <c r="B220" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" t="s">
+        <v>436</v>
+      </c>
+      <c r="B221" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" t="s">
+        <v>438</v>
+      </c>
+      <c r="B222" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" t="s">
+        <v>440</v>
+      </c>
+      <c r="B223" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" t="s">
+        <v>442</v>
+      </c>
+      <c r="B224" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" t="s">
+        <v>444</v>
+      </c>
+      <c r="B225" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" t="s">
+        <v>446</v>
+      </c>
+      <c r="B226" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" t="s">
+        <v>448</v>
+      </c>
+      <c r="B227" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" t="s">
+        <v>450</v>
+      </c>
+      <c r="B228" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" t="s">
+        <v>452</v>
+      </c>
+      <c r="B229" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" t="s">
+        <v>454</v>
+      </c>
+      <c r="B230" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" t="s">
+        <v>456</v>
+      </c>
+      <c r="B231" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" t="s">
+        <v>458</v>
+      </c>
+      <c r="B232" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" t="s">
+        <v>460</v>
+      </c>
+      <c r="B233" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" t="s">
+        <v>462</v>
+      </c>
+      <c r="B234" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" t="s">
+        <v>464</v>
+      </c>
+      <c r="B235" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" t="s">
+        <v>466</v>
+      </c>
+      <c r="B236" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" t="s">
+        <v>468</v>
+      </c>
+      <c r="B237" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" t="s">
+        <v>470</v>
+      </c>
+      <c r="B238" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" t="s">
+        <v>472</v>
+      </c>
+      <c r="B239" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" t="s">
+        <v>474</v>
+      </c>
+      <c r="B240" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" t="s">
+        <v>476</v>
+      </c>
+      <c r="B241" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" t="s">
+        <v>478</v>
+      </c>
+      <c r="B242" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" t="s">
+        <v>480</v>
+      </c>
+      <c r="B243" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" t="s">
+        <v>482</v>
+      </c>
+      <c r="B244" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" t="s">
+        <v>484</v>
+      </c>
+      <c r="B245" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" t="s">
+        <v>486</v>
+      </c>
+      <c r="B246" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" t="s">
+        <v>488</v>
+      </c>
+      <c r="B247" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" t="s">
+        <v>207</v>
+      </c>
+      <c r="B248" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" t="s">
+        <v>491</v>
+      </c>
+      <c r="B249" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" t="s">
+        <v>493</v>
+      </c>
+      <c r="B250" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" t="s">
+        <v>495</v>
+      </c>
+      <c r="B251" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" t="s">
+        <v>497</v>
+      </c>
+      <c r="B252" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" t="s">
+        <v>499</v>
+      </c>
+      <c r="B253" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" t="s">
+        <v>501</v>
+      </c>
+      <c r="B254" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" t="s">
+        <v>503</v>
+      </c>
+      <c r="B255" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" t="s">
+        <v>505</v>
+      </c>
+      <c r="B256" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" t="s">
+        <v>507</v>
+      </c>
+      <c r="B257" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" t="s">
+        <v>509</v>
+      </c>
+      <c r="B258" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" t="s">
+        <v>511</v>
+      </c>
+      <c r="B259" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" t="s">
+        <v>513</v>
+      </c>
+      <c r="B260" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" t="s">
+        <v>515</v>
+      </c>
+      <c r="B261" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" t="s">
+        <v>517</v>
+      </c>
+      <c r="B262" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" t="s">
+        <v>519</v>
+      </c>
+      <c r="B263" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" t="s">
+        <v>521</v>
+      </c>
+      <c r="B264" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" t="s">
+        <v>523</v>
+      </c>
+      <c r="B265" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" t="s">
+        <v>525</v>
+      </c>
+      <c r="B266" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" t="s">
+        <v>527</v>
+      </c>
+      <c r="B267" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" t="s">
+        <v>529</v>
+      </c>
+      <c r="B268" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" t="s">
+        <v>531</v>
+      </c>
+      <c r="B269" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" t="s">
+        <v>533</v>
+      </c>
+      <c r="B270" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" t="s">
+        <v>535</v>
+      </c>
+      <c r="B271" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" t="s">
+        <v>537</v>
+      </c>
+      <c r="B272" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" t="s">
+        <v>539</v>
+      </c>
+      <c r="B273" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" t="s">
+        <v>541</v>
+      </c>
+      <c r="B274" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" t="s">
+        <v>543</v>
+      </c>
+      <c r="B275" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" t="s">
+        <v>545</v>
+      </c>
+      <c r="B276" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" t="s">
+        <v>547</v>
+      </c>
+      <c r="B277" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" t="s">
+        <v>549</v>
+      </c>
+      <c r="B278" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" t="s">
+        <v>551</v>
+      </c>
+      <c r="B279" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" t="s">
+        <v>553</v>
+      </c>
+      <c r="B280" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" t="s">
+        <v>555</v>
+      </c>
+      <c r="B281" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" t="s">
+        <v>557</v>
+      </c>
+      <c r="B282" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" t="s">
+        <v>559</v>
+      </c>
+      <c r="B283" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" t="s">
+        <v>561</v>
+      </c>
+      <c r="B284" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" t="s">
+        <v>563</v>
+      </c>
+      <c r="B285" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" t="s">
+        <v>565</v>
+      </c>
+      <c r="B286" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" t="s">
+        <v>567</v>
+      </c>
+      <c r="B287" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" t="s">
+        <v>569</v>
+      </c>
+      <c r="B288" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" t="s">
+        <v>571</v>
+      </c>
+      <c r="B289" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" t="s">
+        <v>573</v>
+      </c>
+      <c r="B290" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" t="s">
+        <v>575</v>
+      </c>
+      <c r="B291" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" t="s">
+        <v>577</v>
+      </c>
+      <c r="B292" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" t="s">
+        <v>579</v>
+      </c>
+      <c r="B293" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" t="s">
+        <v>581</v>
+      </c>
+      <c r="B294" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" t="s">
+        <v>583</v>
+      </c>
+      <c r="B295" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" t="s">
+        <v>585</v>
+      </c>
+      <c r="B296" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" t="s">
+        <v>587</v>
+      </c>
+      <c r="B297" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" t="s">
+        <v>589</v>
+      </c>
+      <c r="B298" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" t="s">
+        <v>591</v>
+      </c>
+      <c r="B299" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" t="s">
+        <v>593</v>
+      </c>
+      <c r="B300" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" t="s">
+        <v>595</v>
+      </c>
+      <c r="B301" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" t="s">
+        <v>597</v>
+      </c>
+      <c r="B302" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" t="s">
+        <v>599</v>
+      </c>
+      <c r="B303" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" t="s">
+        <v>601</v>
+      </c>
+      <c r="B304" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" t="s">
+        <v>603</v>
+      </c>
+      <c r="B305" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" t="s">
+        <v>605</v>
+      </c>
+      <c r="B306" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" t="s">
+        <v>607</v>
+      </c>
+      <c r="B307" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" t="s">
+        <v>609</v>
+      </c>
+      <c r="B308" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" t="s">
+        <v>611</v>
+      </c>
+      <c r="B309" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" t="s">
+        <v>613</v>
+      </c>
+      <c r="B310" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" t="s">
+        <v>615</v>
+      </c>
+      <c r="B311" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" t="s">
+        <v>617</v>
+      </c>
+      <c r="B312" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" t="s">
+        <v>619</v>
+      </c>
+      <c r="B313" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" t="s">
+        <v>621</v>
+      </c>
+      <c r="B314" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" t="s">
+        <v>623</v>
+      </c>
+      <c r="B315" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" t="s">
+        <v>625</v>
+      </c>
+      <c r="B316" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" t="s">
+        <v>627</v>
+      </c>
+      <c r="B317" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" t="s">
+        <v>629</v>
+      </c>
+      <c r="B318" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" t="s">
+        <v>631</v>
+      </c>
+      <c r="B319" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" t="s">
+        <v>633</v>
+      </c>
+      <c r="B320" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" t="s">
+        <v>635</v>
+      </c>
+      <c r="B321" t="s">
+        <v>636</v>
       </c>
     </row>
   </sheetData>

--- a/word_list.xlsx
+++ b/word_list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="661">
   <si>
     <t>dog</t>
   </si>
@@ -1927,6 +1927,78 @@
   </si>
   <si>
     <t>大自然</t>
+  </si>
+  <si>
+    <t>maintain</t>
+  </si>
+  <si>
+    <t>维持,主张</t>
+  </si>
+  <si>
+    <t>define</t>
+  </si>
+  <si>
+    <t>下定义,限定</t>
+  </si>
+  <si>
+    <t>harmony</t>
+  </si>
+  <si>
+    <t>协调,和谐</t>
+  </si>
+  <si>
+    <t>arrogant</t>
+  </si>
+  <si>
+    <t>傲慢的,自大的</t>
+  </si>
+  <si>
+    <t>afford</t>
+  </si>
+  <si>
+    <t>提供,担负得起</t>
+  </si>
+  <si>
+    <t>argue</t>
+  </si>
+  <si>
+    <t>争论,争辩</t>
+  </si>
+  <si>
+    <t>paradise</t>
+  </si>
+  <si>
+    <t>天堂,乐园</t>
+  </si>
+  <si>
+    <t>plea</t>
+  </si>
+  <si>
+    <t>恳求,答辩</t>
+  </si>
+  <si>
+    <t>merely</t>
+  </si>
+  <si>
+    <t>仅仅,只不过</t>
+  </si>
+  <si>
+    <t>flat</t>
+  </si>
+  <si>
+    <t>单元住宅,平的</t>
+  </si>
+  <si>
+    <t>ponder</t>
+  </si>
+  <si>
+    <t>思索,沉思</t>
+  </si>
+  <si>
+    <t>ignite</t>
+  </si>
+  <si>
+    <t>点燃,着火</t>
   </si>
 </sst>
 </file>
@@ -1934,10 +2006,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1949,6 +2021,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1956,7 +2042,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1965,6 +2051,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1985,46 +2078,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2046,6 +2102,22 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -2061,16 +2133,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2101,13 +2173,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2119,19 +2215,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2149,19 +2245,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2173,19 +2263,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2197,19 +2275,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2227,19 +2305,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2251,37 +2347,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2306,6 +2378,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2363,8 +2444,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2383,15 +2464,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2400,10 +2472,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2412,16 +2484,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2433,16 +2505,16 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2451,94 +2523,94 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2894,10 +2966,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B321"/>
+  <dimension ref="A1:B333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="B182" sqref="B182"/>
+    <sheetView tabSelected="1" topLeftCell="A310" workbookViewId="0">
+      <selection activeCell="G325" sqref="G325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -5474,6 +5546,102 @@
       </c>
       <c r="B321" t="s">
         <v>636</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" t="s">
+        <v>637</v>
+      </c>
+      <c r="B322" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" t="s">
+        <v>639</v>
+      </c>
+      <c r="B323" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" t="s">
+        <v>641</v>
+      </c>
+      <c r="B324" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" t="s">
+        <v>643</v>
+      </c>
+      <c r="B325" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" t="s">
+        <v>645</v>
+      </c>
+      <c r="B326" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" t="s">
+        <v>647</v>
+      </c>
+      <c r="B327" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" t="s">
+        <v>649</v>
+      </c>
+      <c r="B328" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" t="s">
+        <v>651</v>
+      </c>
+      <c r="B329" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" t="s">
+        <v>653</v>
+      </c>
+      <c r="B330" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" t="s">
+        <v>655</v>
+      </c>
+      <c r="B331" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" t="s">
+        <v>657</v>
+      </c>
+      <c r="B332" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" t="s">
+        <v>659</v>
+      </c>
+      <c r="B333" t="s">
+        <v>660</v>
       </c>
     </row>
   </sheetData>

--- a/word_list.xlsx
+++ b/word_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9840"/>
+    <workbookView windowWidth="20490" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="1141">
   <si>
     <t>dog</t>
   </si>
@@ -24,733 +24,1459 @@
     <t>狗</t>
   </si>
   <si>
+    <t>asset</t>
+  </si>
+  <si>
+    <t>资产，优点</t>
+  </si>
+  <si>
     <t>cat</t>
   </si>
   <si>
     <t>猫</t>
   </si>
   <si>
+    <t>decent</t>
+  </si>
+  <si>
+    <t>体面的，大方的</t>
+  </si>
+  <si>
     <t>fish</t>
   </si>
   <si>
     <t>鱼</t>
   </si>
   <si>
+    <t>recipe</t>
+  </si>
+  <si>
+    <t>食谱，诀窍</t>
+  </si>
+  <si>
     <t>bird</t>
   </si>
   <si>
     <t>鸟</t>
   </si>
   <si>
+    <t>premier</t>
+  </si>
+  <si>
+    <t>首要的，首相</t>
+  </si>
+  <si>
     <t>cow</t>
   </si>
   <si>
     <t>牛</t>
   </si>
   <si>
+    <t>casual</t>
+  </si>
+  <si>
+    <t>偶然的，冷淡的</t>
+  </si>
+  <si>
     <t>pig</t>
   </si>
   <si>
     <t>猪</t>
   </si>
   <si>
+    <t>severe</t>
+  </si>
+  <si>
+    <t>严厉的，朴素的</t>
+  </si>
+  <si>
     <t>mouse</t>
   </si>
   <si>
     <t>老鼠</t>
   </si>
   <si>
+    <t>propel</t>
+  </si>
+  <si>
+    <t>推进，激励</t>
+  </si>
+  <si>
     <t>horse</t>
   </si>
   <si>
     <t>马</t>
   </si>
   <si>
+    <t>authorize</t>
+  </si>
+  <si>
+    <t>授权，批准</t>
+  </si>
+  <si>
     <t>wing</t>
   </si>
   <si>
     <t>翅膀</t>
   </si>
   <si>
+    <t>instruct</t>
+  </si>
+  <si>
+    <t>指示，教育</t>
+  </si>
+  <si>
     <t>animal</t>
   </si>
   <si>
     <t>动物</t>
   </si>
   <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>周一</t>
+  </si>
+  <si>
     <t>train</t>
   </si>
   <si>
     <t>火车</t>
   </si>
   <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>周二</t>
+  </si>
+  <si>
     <t>plane</t>
   </si>
   <si>
     <t>飞机</t>
   </si>
   <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>周三</t>
+  </si>
+  <si>
     <t>car</t>
   </si>
   <si>
     <t>汽车</t>
   </si>
   <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>周四</t>
+  </si>
+  <si>
     <t>truck</t>
   </si>
   <si>
     <t>卡车</t>
   </si>
   <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>周五</t>
+  </si>
+  <si>
     <t>bicycle</t>
   </si>
   <si>
     <t>自行车</t>
   </si>
   <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>周六</t>
+  </si>
+  <si>
     <t>bus</t>
   </si>
   <si>
     <t>公共汽车</t>
   </si>
   <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>周日</t>
+  </si>
+  <si>
     <t>boat</t>
   </si>
   <si>
     <t>小艇</t>
   </si>
   <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>年</t>
+  </si>
+  <si>
     <t>ship</t>
   </si>
   <si>
     <t>船</t>
   </si>
   <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>月</t>
+  </si>
+  <si>
     <t>tire</t>
   </si>
   <si>
     <t>轮胎</t>
   </si>
   <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>周</t>
+  </si>
+  <si>
     <t>gasoline</t>
   </si>
   <si>
     <t>汽油</t>
   </si>
   <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>日</t>
+  </si>
+  <si>
     <t>engine</t>
   </si>
   <si>
     <t>引擎</t>
   </si>
   <si>
+    <t>hour</t>
+  </si>
+  <si>
+    <t>小时</t>
+  </si>
+  <si>
     <t>ticket</t>
   </si>
   <si>
     <t>票</t>
   </si>
   <si>
+    <t>minute</t>
+  </si>
+  <si>
+    <t>分钟</t>
+  </si>
+  <si>
     <t>transportation</t>
   </si>
   <si>
     <t>交通</t>
   </si>
   <si>
+    <t>second</t>
+  </si>
+  <si>
+    <t>秒</t>
+  </si>
+  <si>
     <t>city</t>
   </si>
   <si>
     <t>城市</t>
   </si>
   <si>
+    <t>morning</t>
+  </si>
+  <si>
+    <t>早晨</t>
+  </si>
+  <si>
     <t>house</t>
   </si>
   <si>
     <t>住宅</t>
   </si>
   <si>
+    <t>afternoon</t>
+  </si>
+  <si>
+    <t>下午</t>
+  </si>
+  <si>
     <t>apartment</t>
   </si>
   <si>
     <t>公寓</t>
   </si>
   <si>
+    <t>evening</t>
+  </si>
+  <si>
+    <t>傍晚</t>
+  </si>
+  <si>
     <t>street</t>
   </si>
   <si>
     <t>街道</t>
   </si>
   <si>
+    <t>night</t>
+  </si>
+  <si>
+    <t>晚上</t>
+  </si>
+  <si>
     <t>road</t>
   </si>
   <si>
     <t>道路</t>
   </si>
   <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
     <t>airport</t>
   </si>
   <si>
     <t>机场</t>
   </si>
   <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>工作</t>
+  </si>
+  <si>
     <t>train station</t>
   </si>
   <si>
     <t>火车站</t>
   </si>
   <si>
+    <t>play</t>
+  </si>
+  <si>
+    <t>玩耍</t>
+  </si>
+  <si>
     <t>bridge</t>
   </si>
   <si>
     <t>桥</t>
   </si>
   <si>
+    <t>walk</t>
+  </si>
+  <si>
+    <t>走路</t>
+  </si>
+  <si>
     <t>hotel</t>
   </si>
   <si>
     <t>酒店</t>
   </si>
   <si>
+    <t>run</t>
+  </si>
+  <si>
+    <t>跑步</t>
+  </si>
+  <si>
     <t>restaurant</t>
   </si>
   <si>
     <t>餐厅</t>
   </si>
   <si>
+    <t>drive</t>
+  </si>
+  <si>
+    <t>开车</t>
+  </si>
+  <si>
     <t>farm</t>
   </si>
   <si>
     <t>农村</t>
   </si>
   <si>
+    <t>fly</t>
+  </si>
+  <si>
+    <t>飞</t>
+  </si>
+  <si>
     <t>court</t>
   </si>
   <si>
     <t>法院</t>
   </si>
   <si>
+    <t>swim</t>
+  </si>
+  <si>
+    <t>游泳</t>
+  </si>
+  <si>
     <t>school</t>
   </si>
   <si>
     <t>学校</t>
   </si>
   <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>走</t>
+  </si>
+  <si>
     <t>office</t>
   </si>
   <si>
     <t>办公室</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>停</t>
+  </si>
+  <si>
     <t>room</t>
   </si>
   <si>
     <t>房间</t>
   </si>
   <si>
+    <t>follow</t>
+  </si>
+  <si>
+    <t>跟随</t>
+  </si>
+  <si>
     <t>town</t>
   </si>
   <si>
     <t>城镇</t>
   </si>
   <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>想</t>
+  </si>
+  <si>
     <t>university</t>
   </si>
   <si>
     <t>大学</t>
   </si>
   <si>
+    <t>speak</t>
+  </si>
+  <si>
+    <t>说</t>
+  </si>
+  <si>
     <t>club</t>
   </si>
   <si>
     <t>俱乐部</t>
   </si>
   <si>
+    <t>eat</t>
+  </si>
+  <si>
+    <t>吃</t>
+  </si>
+  <si>
     <t>bar</t>
   </si>
   <si>
     <t>酒吧</t>
   </si>
   <si>
+    <t>drink</t>
+  </si>
+  <si>
+    <t>喝</t>
+  </si>
+  <si>
     <t>park</t>
   </si>
   <si>
     <t>公园</t>
   </si>
   <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>杀</t>
+  </si>
+  <si>
     <t>camp</t>
   </si>
   <si>
     <t>营地</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>死</t>
+  </si>
+  <si>
     <t>store</t>
   </si>
   <si>
     <t>商场</t>
   </si>
   <si>
+    <t>smile</t>
+  </si>
+  <si>
+    <t>微笑</t>
+  </si>
+  <si>
     <t>shop</t>
   </si>
   <si>
+    <t>laugh</t>
+  </si>
+  <si>
+    <t>笑</t>
+  </si>
+  <si>
     <t>theater</t>
   </si>
   <si>
     <t>剧院</t>
   </si>
   <si>
+    <t>cry</t>
+  </si>
+  <si>
+    <t>哭</t>
+  </si>
+  <si>
     <t>library</t>
   </si>
   <si>
     <t>图书馆</t>
   </si>
   <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>买</t>
+  </si>
+  <si>
     <t>country</t>
   </si>
   <si>
     <t>国家</t>
   </si>
   <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>付钱</t>
+  </si>
+  <si>
     <t>building</t>
   </si>
   <si>
     <t>建筑</t>
   </si>
   <si>
+    <t>sell</t>
+  </si>
+  <si>
+    <t>卖</t>
+  </si>
+  <si>
     <t>ground</t>
   </si>
   <si>
     <t>地面</t>
   </si>
   <si>
+    <t>shoot</t>
+  </si>
+  <si>
+    <t>射击</t>
+  </si>
+  <si>
     <t>space</t>
   </si>
   <si>
     <t>太空</t>
   </si>
   <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>学习</t>
+  </si>
+  <si>
     <t>bank</t>
   </si>
   <si>
     <t>银行</t>
   </si>
   <si>
+    <t>jump</t>
+  </si>
+  <si>
+    <t>跳</t>
+  </si>
+  <si>
     <t>location</t>
   </si>
   <si>
     <t>地点</t>
   </si>
   <si>
+    <t>smell</t>
+  </si>
+  <si>
+    <t>闻</t>
+  </si>
+  <si>
     <t>hat</t>
   </si>
   <si>
     <t>帽子</t>
   </si>
   <si>
+    <t>hear</t>
+  </si>
+  <si>
+    <t>听</t>
+  </si>
+  <si>
     <t>dress</t>
   </si>
   <si>
     <t>连衣裙</t>
   </si>
   <si>
+    <t>listen</t>
+  </si>
+  <si>
     <t>suit</t>
   </si>
   <si>
     <t>西装</t>
   </si>
   <si>
+    <t>taste</t>
+  </si>
+  <si>
+    <t>品尝</t>
+  </si>
+  <si>
     <t>skirt</t>
   </si>
   <si>
     <t>裙子</t>
   </si>
   <si>
+    <t>touch</t>
+  </si>
+  <si>
+    <t>触摸</t>
+  </si>
+  <si>
     <t>shirt</t>
   </si>
   <si>
     <t>衬衫</t>
   </si>
   <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>看</t>
+  </si>
+  <si>
     <t>T-shirt</t>
   </si>
   <si>
     <t>T恤</t>
   </si>
   <si>
+    <t>watch</t>
+  </si>
+  <si>
     <t>pants</t>
   </si>
   <si>
     <t>裤子</t>
   </si>
   <si>
+    <t>kiss</t>
+  </si>
+  <si>
+    <t>亲吻</t>
+  </si>
+  <si>
     <t>shoes</t>
   </si>
   <si>
     <t>鞋子</t>
   </si>
   <si>
+    <t>burn</t>
+  </si>
+  <si>
+    <t>燃烧</t>
+  </si>
+  <si>
     <t>pocket</t>
   </si>
   <si>
     <t>口袋</t>
   </si>
   <si>
+    <t>melt</t>
+  </si>
+  <si>
+    <t>溶化</t>
+  </si>
+  <si>
     <t>coat</t>
   </si>
   <si>
     <t>外套</t>
   </si>
   <si>
+    <t>dig</t>
+  </si>
+  <si>
+    <t>挖掘</t>
+  </si>
+  <si>
     <t>stain</t>
   </si>
   <si>
     <t>污渍</t>
   </si>
   <si>
+    <t>explode</t>
+  </si>
+  <si>
+    <t>爆炸</t>
+  </si>
+  <si>
     <t>clothing</t>
   </si>
   <si>
     <t>服装</t>
   </si>
   <si>
+    <t>sit</t>
+  </si>
+  <si>
+    <t>坐</t>
+  </si>
+  <si>
     <t>red</t>
   </si>
   <si>
     <t>红色</t>
   </si>
   <si>
+    <t>stand</t>
+  </si>
+  <si>
+    <t>站</t>
+  </si>
+  <si>
     <t>green</t>
   </si>
   <si>
     <t>绿色</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>爱</t>
+  </si>
+  <si>
     <t>blue</t>
   </si>
   <si>
     <t>蓝色</t>
   </si>
   <si>
+    <t>pass by</t>
+  </si>
+  <si>
+    <t>路过</t>
+  </si>
+  <si>
     <t>yellow</t>
   </si>
   <si>
     <t>黄色</t>
   </si>
   <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>切</t>
+  </si>
+  <si>
     <t>brown</t>
   </si>
   <si>
     <t>棕色</t>
   </si>
   <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>战斗</t>
+  </si>
+  <si>
     <t>pink</t>
   </si>
   <si>
     <t>粉红色</t>
   </si>
   <si>
+    <t>lie down</t>
+  </si>
+  <si>
+    <t>躺下</t>
+  </si>
+  <si>
     <t>orange</t>
   </si>
   <si>
     <t>橙色</t>
   </si>
   <si>
+    <t>dance</t>
+  </si>
+  <si>
+    <t>跳舞</t>
+  </si>
+  <si>
     <t>black</t>
   </si>
   <si>
     <t>黑色</t>
   </si>
   <si>
+    <t>sleep</t>
+  </si>
+  <si>
+    <t>睡觉</t>
+  </si>
+  <si>
     <t>white</t>
   </si>
   <si>
     <t>白色</t>
   </si>
   <si>
+    <t>wake up</t>
+  </si>
+  <si>
+    <t>醒来</t>
+  </si>
+  <si>
     <t>gray</t>
   </si>
   <si>
     <t>灰色</t>
   </si>
   <si>
+    <t>sing</t>
+  </si>
+  <si>
+    <t>唱歌</t>
+  </si>
+  <si>
     <t>color</t>
   </si>
   <si>
     <t>颜色</t>
   </si>
   <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>计算</t>
+  </si>
+  <si>
     <t>son</t>
   </si>
   <si>
     <t>儿子</t>
   </si>
   <si>
+    <t>marry</t>
+  </si>
+  <si>
+    <t>结婚</t>
+  </si>
+  <si>
     <t>daughter</t>
   </si>
   <si>
     <t>女儿</t>
   </si>
   <si>
+    <t>pray</t>
+  </si>
+  <si>
+    <t>祈祷</t>
+  </si>
+  <si>
     <t>mother</t>
   </si>
   <si>
     <t>母亲</t>
   </si>
   <si>
+    <t>win</t>
+  </si>
+  <si>
+    <t>胜利</t>
+  </si>
+  <si>
     <t>father</t>
   </si>
   <si>
     <t>父亲</t>
   </si>
   <si>
+    <t>lose</t>
+  </si>
+  <si>
+    <t>失败</t>
+  </si>
+  <si>
     <t>parent</t>
   </si>
   <si>
     <t>父母</t>
   </si>
   <si>
+    <t>mix/stir</t>
+  </si>
+  <si>
+    <t>混合/搅拌</t>
+  </si>
+  <si>
     <t>baby</t>
   </si>
   <si>
     <t>婴儿</t>
   </si>
   <si>
+    <t>bend</t>
+  </si>
+  <si>
+    <t>弯腰</t>
+  </si>
+  <si>
     <t>man</t>
   </si>
   <si>
     <t>男人</t>
   </si>
   <si>
+    <t>wash</t>
+  </si>
+  <si>
+    <t>清洗</t>
+  </si>
+  <si>
     <t>woman</t>
   </si>
   <si>
     <t>女人</t>
   </si>
   <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>烹饪</t>
+  </si>
+  <si>
     <t>brother</t>
   </si>
   <si>
     <t>兄弟</t>
   </si>
   <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>打开</t>
+  </si>
+  <si>
     <t>sister</t>
   </si>
   <si>
     <t>姐妹</t>
   </si>
   <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>关闭</t>
+  </si>
+  <si>
     <t>family</t>
   </si>
   <si>
     <t>家庭</t>
   </si>
   <si>
+    <t>write</t>
+  </si>
+  <si>
+    <t>写作</t>
+  </si>
+  <si>
     <t>grandfather</t>
   </si>
   <si>
     <t>祖父</t>
   </si>
   <si>
+    <t>call</t>
+  </si>
+  <si>
+    <t>呼叫</t>
+  </si>
+  <si>
     <t>grandmother</t>
   </si>
   <si>
     <t>祖母</t>
   </si>
   <si>
+    <t>turn</t>
+  </si>
+  <si>
+    <t>转动</t>
+  </si>
+  <si>
     <t>husband</t>
   </si>
   <si>
     <t>丈夫</t>
   </si>
   <si>
+    <t>build</t>
+  </si>
+  <si>
+    <t>建造</t>
+  </si>
+  <si>
     <t>wife</t>
   </si>
   <si>
     <t>妻子</t>
   </si>
   <si>
+    <t>teach</t>
+  </si>
+  <si>
+    <t>教导</t>
+  </si>
+  <si>
     <t>king</t>
   </si>
   <si>
     <t>国王</t>
   </si>
   <si>
+    <t>grow</t>
+  </si>
+  <si>
+    <t>生长</t>
+  </si>
+  <si>
     <t>queen</t>
   </si>
   <si>
     <t>女王</t>
   </si>
   <si>
+    <t>draw</t>
+  </si>
+  <si>
+    <t>绘画</t>
+  </si>
+  <si>
     <t>president</t>
   </si>
   <si>
     <t>总统</t>
   </si>
   <si>
+    <t>feed</t>
+  </si>
+  <si>
+    <t>喂食</t>
+  </si>
+  <si>
     <t>neighbor</t>
   </si>
   <si>
     <t>邻居</t>
   </si>
   <si>
+    <t>catch</t>
+  </si>
+  <si>
+    <t>抓</t>
+  </si>
+  <si>
     <t>boy</t>
   </si>
   <si>
     <t>男孩</t>
   </si>
   <si>
+    <t>throw</t>
+  </si>
+  <si>
+    <t>扔</t>
+  </si>
+  <si>
     <t>girl</t>
   </si>
   <si>
     <t>女孩</t>
   </si>
   <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>清理</t>
+  </si>
+  <si>
     <t>child</t>
   </si>
   <si>
     <t>孩子</t>
   </si>
   <si>
+    <t>find</t>
+  </si>
+  <si>
+    <t>寻找</t>
+  </si>
+  <si>
     <t>adult</t>
   </si>
   <si>
     <t>成人</t>
   </si>
   <si>
+    <t>fall</t>
+  </si>
+  <si>
+    <t>摔倒</t>
+  </si>
+  <si>
     <t>human</t>
   </si>
   <si>
     <t>人类</t>
   </si>
   <si>
+    <t>push</t>
+  </si>
+  <si>
+    <t>推</t>
+  </si>
+  <si>
     <t>friend</t>
   </si>
   <si>
     <t>朋友</t>
   </si>
   <si>
+    <t>pull</t>
+  </si>
+  <si>
+    <t>拉</t>
+  </si>
+  <si>
     <t>victim</t>
   </si>
   <si>
     <t>受害者</t>
   </si>
   <si>
+    <t>carry</t>
+  </si>
+  <si>
+    <t>携带</t>
+  </si>
+  <si>
     <t>player</t>
   </si>
   <si>
     <t>玩家</t>
   </si>
   <si>
+    <t>break</t>
+  </si>
+  <si>
+    <t>打破</t>
+  </si>
+  <si>
     <t>fan</t>
   </si>
   <si>
     <t>粉丝</t>
   </si>
   <si>
+    <t>wear</t>
+  </si>
+  <si>
+    <t>穿</t>
+  </si>
+  <si>
     <t>crowd</t>
   </si>
   <si>
     <t>人群</t>
   </si>
   <si>
+    <t>hang</t>
+  </si>
+  <si>
+    <t>挂</t>
+  </si>
+  <si>
     <t>teacher</t>
   </si>
   <si>
     <t>老师</t>
   </si>
   <si>
+    <t>shake</t>
+  </si>
+  <si>
+    <t>摇晃</t>
+  </si>
+  <si>
     <t>student</t>
   </si>
   <si>
     <t>学生</t>
   </si>
   <si>
+    <t>sign</t>
+  </si>
+  <si>
+    <t>签</t>
+  </si>
+  <si>
     <t>lawyer</t>
   </si>
   <si>
     <t>律师</t>
   </si>
   <si>
+    <t>beat</t>
+  </si>
+  <si>
+    <t>打</t>
+  </si>
+  <si>
     <t>doctor</t>
   </si>
   <si>
     <t>医生</t>
   </si>
   <si>
+    <t>lift</t>
+  </si>
+  <si>
+    <t>抬</t>
+  </si>
+  <si>
     <t>patient</t>
   </si>
   <si>
     <t>病人</t>
   </si>
   <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>长</t>
+  </si>
+  <si>
     <t>waiter</t>
   </si>
   <si>
     <t>服务员</t>
   </si>
   <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>短</t>
+  </si>
+  <si>
     <t>secretary</t>
   </si>
   <si>
     <t>秘书</t>
   </si>
   <si>
+    <t>tall</t>
+  </si>
+  <si>
+    <t>高</t>
+  </si>
+  <si>
     <t>priest</t>
   </si>
   <si>
     <t>牧师</t>
   </si>
   <si>
+    <t>矮</t>
+  </si>
+  <si>
     <t>police</t>
   </si>
   <si>
     <t>警察</t>
   </si>
   <si>
+    <t>wide</t>
+  </si>
+  <si>
+    <t>宽</t>
+  </si>
+  <si>
     <t>army</t>
   </si>
   <si>
     <t>军队</t>
   </si>
   <si>
+    <t>narrow</t>
+  </si>
+  <si>
+    <t>窄</t>
+  </si>
+  <si>
     <t>soldier</t>
   </si>
   <si>
     <t>军人</t>
   </si>
   <si>
+    <t>big/large</t>
+  </si>
+  <si>
+    <t>大</t>
+  </si>
+  <si>
     <t>artist</t>
   </si>
   <si>
     <t>艺术家</t>
   </si>
   <si>
+    <t>small/little</t>
+  </si>
+  <si>
+    <t>小</t>
+  </si>
+  <si>
     <t>author</t>
   </si>
   <si>
     <t>作者</t>
   </si>
   <si>
+    <t>slow</t>
+  </si>
+  <si>
+    <t>慢</t>
+  </si>
+  <si>
     <t>manager</t>
   </si>
   <si>
     <t>经理</t>
   </si>
   <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>快</t>
+  </si>
+  <si>
     <t>reporter</t>
   </si>
   <si>
     <t>记者</t>
   </si>
   <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>热</t>
+  </si>
+  <si>
     <t>actor</t>
   </si>
   <si>
     <t>演员</t>
   </si>
   <si>
+    <t>cold</t>
+  </si>
+  <si>
+    <t>冷</t>
+  </si>
+  <si>
     <t>job</t>
   </si>
   <si>
-    <t>工作</t>
+    <t>warm</t>
+  </si>
+  <si>
+    <t>温</t>
   </si>
   <si>
     <t>religion</t>
@@ -759,300 +1485,588 @@
     <t>宗教</t>
   </si>
   <si>
+    <t>cool</t>
+  </si>
+  <si>
+    <t>凉爽</t>
+  </si>
+  <si>
     <t>heaven</t>
   </si>
   <si>
     <t>天堂</t>
   </si>
   <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>新</t>
+  </si>
+  <si>
     <t>hell</t>
   </si>
   <si>
     <t>地狱</t>
   </si>
   <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>旧</t>
+  </si>
+  <si>
     <t>death</t>
   </si>
   <si>
     <t>死亡</t>
   </si>
   <si>
+    <t>young</t>
+  </si>
+  <si>
+    <t>年轻</t>
+  </si>
+  <si>
     <t>medicine</t>
   </si>
   <si>
     <t>医学</t>
   </si>
   <si>
+    <t>老</t>
+  </si>
+  <si>
     <t>money</t>
   </si>
   <si>
     <t>金钱</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>好</t>
+  </si>
+  <si>
     <t>dollar</t>
   </si>
   <si>
     <t>美元</t>
   </si>
   <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>坏</t>
+  </si>
+  <si>
     <t>bill</t>
   </si>
   <si>
     <t>账单</t>
   </si>
   <si>
+    <t>wet</t>
+  </si>
+  <si>
+    <t>湿</t>
+  </si>
+  <si>
     <t>marriage</t>
   </si>
   <si>
     <t>婚姻</t>
   </si>
   <si>
+    <t>dry</t>
+  </si>
+  <si>
+    <t>干</t>
+  </si>
+  <si>
     <t>wedding</t>
   </si>
   <si>
     <t>婚礼</t>
   </si>
   <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>病</t>
+  </si>
+  <si>
     <t>team</t>
   </si>
   <si>
     <t>团队</t>
   </si>
   <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>健康</t>
+  </si>
+  <si>
     <t>race</t>
   </si>
   <si>
     <t>种族</t>
   </si>
   <si>
+    <t>loud</t>
+  </si>
+  <si>
+    <t>响亮</t>
+  </si>
+  <si>
     <t>ethnicity</t>
   </si>
   <si>
+    <t>quiet</t>
+  </si>
+  <si>
+    <t>安静</t>
+  </si>
+  <si>
     <t>murder</t>
   </si>
   <si>
     <t>谋杀</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>开心</t>
+  </si>
+  <si>
     <t>prison</t>
   </si>
   <si>
     <t>监狱</t>
   </si>
   <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>伤心</t>
+  </si>
+  <si>
     <t>technology</t>
   </si>
   <si>
     <t>科技</t>
   </si>
   <si>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>美丽</t>
+  </si>
+  <si>
     <t>energy</t>
   </si>
   <si>
     <t>能源</t>
   </si>
   <si>
+    <t>ugly</t>
+  </si>
+  <si>
+    <t>丑陋</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
     <t>战争</t>
   </si>
   <si>
+    <t>deaf</t>
+  </si>
+  <si>
+    <t>聋</t>
+  </si>
+  <si>
     <t>peace</t>
   </si>
   <si>
     <t>和平</t>
   </si>
   <si>
+    <t>blind</t>
+  </si>
+  <si>
+    <t>失明</t>
+  </si>
+  <si>
     <t>attack</t>
   </si>
   <si>
     <t>攻击</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>友好</t>
+  </si>
+  <si>
     <t>election</t>
   </si>
   <si>
     <t>选举</t>
   </si>
   <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>刻薄</t>
+  </si>
+  <si>
     <t>magazine</t>
   </si>
   <si>
     <t>杂志</t>
   </si>
   <si>
+    <t>rich</t>
+  </si>
+  <si>
+    <t>富有</t>
+  </si>
+  <si>
     <t>newspaper</t>
   </si>
   <si>
     <t>报纸</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>穷</t>
+  </si>
+  <si>
     <t>poison</t>
   </si>
   <si>
     <t>毒药</t>
   </si>
   <si>
+    <t>thick</t>
+  </si>
+  <si>
+    <t>厚</t>
+  </si>
+  <si>
     <t>gun</t>
   </si>
   <si>
     <t>枪支</t>
   </si>
   <si>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>薄</t>
+  </si>
+  <si>
     <t>sport</t>
   </si>
   <si>
     <t>体育</t>
   </si>
   <si>
+    <t>expensive</t>
+  </si>
+  <si>
+    <t>贵</t>
+  </si>
+  <si>
     <t>exercise</t>
   </si>
   <si>
     <t>运动</t>
   </si>
   <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>便宜</t>
+  </si>
+  <si>
     <t>ball</t>
   </si>
   <si>
     <t>球</t>
   </si>
   <si>
+    <t>flat</t>
+  </si>
+  <si>
+    <t>平</t>
+  </si>
+  <si>
     <t>game</t>
   </si>
   <si>
     <t>游戏</t>
   </si>
   <si>
+    <t>curved</t>
+  </si>
+  <si>
+    <t>弯曲</t>
+  </si>
+  <si>
     <t>price</t>
   </si>
   <si>
     <t>价格</t>
   </si>
   <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>雄</t>
+  </si>
+  <si>
     <t>contract</t>
   </si>
   <si>
     <t>合同</t>
   </si>
   <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>雌</t>
+  </si>
+  <si>
     <t>drug</t>
   </si>
   <si>
     <t>毒品</t>
   </si>
   <si>
-    <t>sign</t>
+    <t>tight</t>
+  </si>
+  <si>
+    <t>紧</t>
   </si>
   <si>
     <t>迹象</t>
   </si>
   <si>
+    <t>loose</t>
+  </si>
+  <si>
+    <t>松</t>
+  </si>
+  <si>
     <t>science</t>
   </si>
   <si>
     <t>科学</t>
   </si>
   <si>
+    <t>high</t>
+  </si>
+  <si>
     <t>god</t>
   </si>
   <si>
     <t>上帝</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>低</t>
+  </si>
+  <si>
     <t>band</t>
   </si>
   <si>
     <t>乐队</t>
   </si>
   <si>
+    <t>soft</t>
+  </si>
+  <si>
+    <t>软</t>
+  </si>
+  <si>
     <t>song</t>
   </si>
   <si>
     <t>歌曲</t>
   </si>
   <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>硬</t>
+  </si>
+  <si>
     <t>instrument</t>
   </si>
   <si>
     <t>乐器</t>
   </si>
   <si>
+    <t>deep</t>
+  </si>
+  <si>
+    <t>深</t>
+  </si>
+  <si>
     <t>musical</t>
   </si>
   <si>
+    <t>shallow</t>
+  </si>
+  <si>
+    <t>浅</t>
+  </si>
+  <si>
     <t>music</t>
   </si>
   <si>
     <t>音乐</t>
   </si>
   <si>
+    <t>清洁</t>
+  </si>
+  <si>
     <t>movie</t>
   </si>
   <si>
     <t>电影</t>
   </si>
   <si>
+    <t>dirty</t>
+  </si>
+  <si>
+    <t>肮脏</t>
+  </si>
+  <si>
     <t>art</t>
   </si>
   <si>
     <t>艺术</t>
   </si>
   <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>强大</t>
+  </si>
+  <si>
     <t>coffee</t>
   </si>
   <si>
     <t>咖啡</t>
   </si>
   <si>
+    <t>weak</t>
+  </si>
+  <si>
+    <t>软弱</t>
+  </si>
+  <si>
     <t>tea</t>
   </si>
   <si>
     <t>茶</t>
   </si>
   <si>
+    <t>dead</t>
+  </si>
+  <si>
     <t>wine</t>
   </si>
   <si>
     <t>葡萄酒</t>
   </si>
   <si>
+    <t>alive</t>
+  </si>
+  <si>
+    <t>活</t>
+  </si>
+  <si>
     <t>beer</t>
   </si>
   <si>
     <t>啤酒</t>
   </si>
   <si>
+    <t>heavy</t>
+  </si>
+  <si>
+    <t>重</t>
+  </si>
+  <si>
     <t>juice</t>
   </si>
   <si>
     <t>果汁</t>
   </si>
   <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>轻</t>
+  </si>
+  <si>
     <t>water</t>
   </si>
   <si>
     <t>水</t>
   </si>
   <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>暗</t>
+  </si>
+  <si>
     <t>milk</t>
   </si>
   <si>
     <t>牛奶</t>
   </si>
   <si>
+    <t>亮</t>
+  </si>
+  <si>
     <t>beverage</t>
   </si>
   <si>
     <t>饮料</t>
   </si>
   <si>
+    <t>nuclear</t>
+  </si>
+  <si>
+    <t>核能</t>
+  </si>
+  <si>
     <t>spite</t>
   </si>
   <si>
     <t>恶意,怨恨</t>
   </si>
   <si>
+    <t>famous</t>
+  </si>
+  <si>
+    <t>著名</t>
+  </si>
+  <si>
     <t>luxury</t>
   </si>
   <si>
@@ -1983,9 +2997,6 @@
     <t>仅仅,只不过</t>
   </si>
   <si>
-    <t>flat</t>
-  </si>
-  <si>
     <t>单元住宅,平的</t>
   </si>
   <si>
@@ -1999,6 +3010,435 @@
   </si>
   <si>
     <t>点燃,着火</t>
+  </si>
+  <si>
+    <t>glass</t>
+  </si>
+  <si>
+    <t>玻璃</t>
+  </si>
+  <si>
+    <t>metal</t>
+  </si>
+  <si>
+    <t>金属</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>塑料</t>
+  </si>
+  <si>
+    <t>wood</t>
+  </si>
+  <si>
+    <t>木材</t>
+  </si>
+  <si>
+    <t>stone</t>
+  </si>
+  <si>
+    <t>石头</t>
+  </si>
+  <si>
+    <t>diamond</t>
+  </si>
+  <si>
+    <t>钻石</t>
+  </si>
+  <si>
+    <t>clay</t>
+  </si>
+  <si>
+    <t>粘土</t>
+  </si>
+  <si>
+    <t>dust</t>
+  </si>
+  <si>
+    <t>灰尘</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>金</t>
+  </si>
+  <si>
+    <t>copper</t>
+  </si>
+  <si>
+    <t>铜</t>
+  </si>
+  <si>
+    <t>silver</t>
+  </si>
+  <si>
+    <t>银</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>材料</t>
+  </si>
+  <si>
+    <t>meter</t>
+  </si>
+  <si>
+    <t>米</t>
+  </si>
+  <si>
+    <t>centimeter</t>
+  </si>
+  <si>
+    <t>厘米</t>
+  </si>
+  <si>
+    <t>kilogram</t>
+  </si>
+  <si>
+    <t>公斤</t>
+  </si>
+  <si>
+    <t>inch</t>
+  </si>
+  <si>
+    <t>英寸</t>
+  </si>
+  <si>
+    <t>英尺</t>
+  </si>
+  <si>
+    <t>pound</t>
+  </si>
+  <si>
+    <t>磅</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>一半</t>
+  </si>
+  <si>
+    <t>circle</t>
+  </si>
+  <si>
+    <t>圆</t>
+  </si>
+  <si>
+    <t>square</t>
+  </si>
+  <si>
+    <t>方形</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>温度</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>重量</t>
+  </si>
+  <si>
+    <t>edge</t>
+  </si>
+  <si>
+    <t>边缘</t>
+  </si>
+  <si>
+    <t>corner</t>
+  </si>
+  <si>
+    <t>角落</t>
+  </si>
+  <si>
+    <t>map</t>
+  </si>
+  <si>
+    <t>地图</t>
+  </si>
+  <si>
+    <t>dot</t>
+  </si>
+  <si>
+    <t>点</t>
+  </si>
+  <si>
+    <t>consonant</t>
+  </si>
+  <si>
+    <t>辅音</t>
+  </si>
+  <si>
+    <t>vowel</t>
+  </si>
+  <si>
+    <t>元音</t>
+  </si>
+  <si>
+    <t>光</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>不是</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>一块</t>
+  </si>
+  <si>
+    <t>pain</t>
+  </si>
+  <si>
+    <t>疼痛</t>
+  </si>
+  <si>
+    <t>injury</t>
+  </si>
+  <si>
+    <t>伤害</t>
+  </si>
+  <si>
+    <t>hole</t>
+  </si>
+  <si>
+    <t>洞</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>图片</t>
+  </si>
+  <si>
+    <t>pattern</t>
+  </si>
+  <si>
+    <t>花样</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>顶部</t>
+  </si>
+  <si>
+    <t>bottom</t>
+  </si>
+  <si>
+    <t>底部</t>
+  </si>
+  <si>
+    <t>side</t>
+  </si>
+  <si>
+    <t>侧面</t>
+  </si>
+  <si>
+    <t>front</t>
+  </si>
+  <si>
+    <t>前面</t>
+  </si>
+  <si>
+    <t>后面</t>
+  </si>
+  <si>
+    <t>outside</t>
+  </si>
+  <si>
+    <t>外面</t>
+  </si>
+  <si>
+    <t>inside</t>
+  </si>
+  <si>
+    <t>里面</t>
+  </si>
+  <si>
+    <t>up</t>
+  </si>
+  <si>
+    <t>上面</t>
+  </si>
+  <si>
+    <t>down</t>
+  </si>
+  <si>
+    <t>下面</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>左</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>右</t>
+  </si>
+  <si>
+    <t>straight</t>
+  </si>
+  <si>
+    <t>直</t>
+  </si>
+  <si>
+    <t>north</t>
+  </si>
+  <si>
+    <t>北部</t>
+  </si>
+  <si>
+    <t>south</t>
+  </si>
+  <si>
+    <t>南部</t>
+  </si>
+  <si>
+    <t>east</t>
+  </si>
+  <si>
+    <t>东部</t>
+  </si>
+  <si>
+    <t>West</t>
+  </si>
+  <si>
+    <t>西部</t>
+  </si>
+  <si>
+    <t>direction</t>
+  </si>
+  <si>
+    <t>方向</t>
+  </si>
+  <si>
+    <t>summer</t>
+  </si>
+  <si>
+    <t>夏天</t>
+  </si>
+  <si>
+    <t>spring</t>
+  </si>
+  <si>
+    <t>春天</t>
+  </si>
+  <si>
+    <t>winter</t>
+  </si>
+  <si>
+    <t>冬天</t>
+  </si>
+  <si>
+    <t>秋天</t>
+  </si>
+  <si>
+    <t>season</t>
+  </si>
+  <si>
+    <t>季节</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>一月</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>二月</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>三月</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>四月</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>五月</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>六月</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>七月</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>八月</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>九月</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>十月</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>十一月</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>十二月</t>
   </si>
 </sst>
 </file>
@@ -2006,10 +3446,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -2028,36 +3468,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2072,30 +3483,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2104,6 +3499,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2134,15 +3536,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2163,6 +3557,52 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -2179,7 +3619,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2197,13 +3667,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2215,25 +3709,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2245,7 +3733,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2263,31 +3757,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2299,43 +3769,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2347,13 +3793,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2364,30 +3804,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2432,6 +3848,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2441,11 +3866,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2472,10 +3912,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2484,133 +3924,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2966,2682 +4406,4319 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B333"/>
+  <dimension ref="A1:D407"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A310" workbookViewId="0">
-      <selection activeCell="G325" sqref="G325"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="19.25" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="28.375" customWidth="1"/>
+    <col min="4" max="4" width="22.125" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>61</v>
+      </c>
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>65</v>
+      </c>
+      <c r="C17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>69</v>
+      </c>
+      <c r="C18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>73</v>
+      </c>
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>77</v>
+      </c>
+      <c r="C20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>85</v>
+      </c>
+      <c r="C22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>89</v>
+      </c>
+      <c r="C23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>93</v>
+      </c>
+      <c r="C24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>97</v>
+      </c>
+      <c r="C25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>101</v>
+      </c>
+      <c r="C26" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>105</v>
+      </c>
+      <c r="C27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>109</v>
+      </c>
+      <c r="C28" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>113</v>
+      </c>
+      <c r="C29" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>117</v>
+      </c>
+      <c r="C30" t="s">
+        <v>118</v>
+      </c>
+      <c r="D30" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>121</v>
+      </c>
+      <c r="C31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>125</v>
+      </c>
+      <c r="C32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D32" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>129</v>
+      </c>
+      <c r="C33" t="s">
+        <v>130</v>
+      </c>
+      <c r="D33" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>133</v>
+      </c>
+      <c r="C34" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>137</v>
+      </c>
+      <c r="C35" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>141</v>
+      </c>
+      <c r="C36" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>145</v>
+      </c>
+      <c r="C37" t="s">
+        <v>146</v>
+      </c>
+      <c r="D37" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>149</v>
+      </c>
+      <c r="C38" t="s">
+        <v>150</v>
+      </c>
+      <c r="D38" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>153</v>
+      </c>
+      <c r="C39" t="s">
+        <v>154</v>
+      </c>
+      <c r="D39" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>157</v>
+      </c>
+      <c r="C40" t="s">
+        <v>158</v>
+      </c>
+      <c r="D40" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>161</v>
+      </c>
+      <c r="C41" t="s">
+        <v>162</v>
+      </c>
+      <c r="D41" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>165</v>
+      </c>
+      <c r="C42" t="s">
+        <v>166</v>
+      </c>
+      <c r="D42" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>84</v>
+        <v>168</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>169</v>
+      </c>
+      <c r="C43" t="s">
+        <v>170</v>
+      </c>
+      <c r="D43" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>86</v>
+        <v>172</v>
       </c>
       <c r="B44" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>173</v>
+      </c>
+      <c r="C44" t="s">
+        <v>174</v>
+      </c>
+      <c r="D44" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>88</v>
+        <v>176</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>177</v>
+      </c>
+      <c r="C45" t="s">
+        <v>178</v>
+      </c>
+      <c r="D45" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="B46" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>177</v>
+      </c>
+      <c r="C46" t="s">
+        <v>181</v>
+      </c>
+      <c r="D46" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>91</v>
+        <v>183</v>
       </c>
       <c r="B47" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>184</v>
+      </c>
+      <c r="C47" t="s">
+        <v>185</v>
+      </c>
+      <c r="D47" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>93</v>
+        <v>187</v>
       </c>
       <c r="B48" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>188</v>
+      </c>
+      <c r="C48" t="s">
+        <v>189</v>
+      </c>
+      <c r="D48" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>95</v>
+        <v>191</v>
       </c>
       <c r="B49" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>192</v>
+      </c>
+      <c r="C49" t="s">
+        <v>193</v>
+      </c>
+      <c r="D49" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>97</v>
+        <v>195</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>196</v>
+      </c>
+      <c r="C50" t="s">
+        <v>197</v>
+      </c>
+      <c r="D50" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>99</v>
+        <v>199</v>
       </c>
       <c r="B51" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>200</v>
+      </c>
+      <c r="C51" t="s">
+        <v>201</v>
+      </c>
+      <c r="D51" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>101</v>
+        <v>203</v>
       </c>
       <c r="B52" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>204</v>
+      </c>
+      <c r="C52" t="s">
+        <v>205</v>
+      </c>
+      <c r="D52" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>103</v>
+        <v>207</v>
       </c>
       <c r="B53" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>208</v>
+      </c>
+      <c r="C53" t="s">
+        <v>209</v>
+      </c>
+      <c r="D53" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>105</v>
+        <v>211</v>
       </c>
       <c r="B54" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>212</v>
+      </c>
+      <c r="C54" t="s">
+        <v>213</v>
+      </c>
+      <c r="D54" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>107</v>
+        <v>215</v>
       </c>
       <c r="B55" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>216</v>
+      </c>
+      <c r="C55" t="s">
+        <v>217</v>
+      </c>
+      <c r="D55" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>109</v>
+        <v>219</v>
       </c>
       <c r="B56" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>220</v>
+      </c>
+      <c r="C56" t="s">
+        <v>221</v>
+      </c>
+      <c r="D56" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>111</v>
+        <v>222</v>
       </c>
       <c r="B57" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <v>223</v>
+      </c>
+      <c r="C57" t="s">
+        <v>224</v>
+      </c>
+      <c r="D57" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>113</v>
+        <v>226</v>
       </c>
       <c r="B58" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>227</v>
+      </c>
+      <c r="C58" t="s">
+        <v>228</v>
+      </c>
+      <c r="D58" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
+        <v>230</v>
+      </c>
+      <c r="B59" t="s">
+        <v>231</v>
+      </c>
+      <c r="C59" t="s">
+        <v>232</v>
+      </c>
+      <c r="D59" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>234</v>
+      </c>
+      <c r="B60" t="s">
+        <v>235</v>
+      </c>
+      <c r="C60" t="s">
+        <v>236</v>
+      </c>
+      <c r="D60" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>237</v>
+      </c>
+      <c r="B61" t="s">
+        <v>238</v>
+      </c>
+      <c r="C61" t="s">
+        <v>239</v>
+      </c>
+      <c r="D61" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>241</v>
+      </c>
+      <c r="B62" t="s">
+        <v>242</v>
+      </c>
+      <c r="C62" t="s">
+        <v>243</v>
+      </c>
+      <c r="D62" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>245</v>
+      </c>
+      <c r="B63" t="s">
+        <v>246</v>
+      </c>
+      <c r="C63" t="s">
+        <v>247</v>
+      </c>
+      <c r="D63" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>249</v>
+      </c>
+      <c r="B64" t="s">
+        <v>250</v>
+      </c>
+      <c r="C64" t="s">
+        <v>251</v>
+      </c>
+      <c r="D64" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>253</v>
+      </c>
+      <c r="B65" t="s">
+        <v>254</v>
+      </c>
+      <c r="C65" t="s">
+        <v>255</v>
+      </c>
+      <c r="D65" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>257</v>
+      </c>
+      <c r="B66" t="s">
+        <v>258</v>
+      </c>
+      <c r="C66" t="s">
+        <v>259</v>
+      </c>
+      <c r="D66" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>261</v>
+      </c>
+      <c r="B67" t="s">
+        <v>262</v>
+      </c>
+      <c r="C67" t="s">
+        <v>263</v>
+      </c>
+      <c r="D67" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>265</v>
+      </c>
+      <c r="B68" t="s">
+        <v>266</v>
+      </c>
+      <c r="C68" t="s">
+        <v>267</v>
+      </c>
+      <c r="D68" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>269</v>
+      </c>
+      <c r="B69" t="s">
+        <v>270</v>
+      </c>
+      <c r="C69" t="s">
+        <v>271</v>
+      </c>
+      <c r="D69" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>273</v>
+      </c>
+      <c r="B70" t="s">
+        <v>274</v>
+      </c>
+      <c r="C70" t="s">
+        <v>275</v>
+      </c>
+      <c r="D70" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>277</v>
+      </c>
+      <c r="B71" t="s">
+        <v>278</v>
+      </c>
+      <c r="C71" t="s">
+        <v>279</v>
+      </c>
+      <c r="D71" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>282</v>
+      </c>
+      <c r="C72" t="s">
+        <v>283</v>
+      </c>
+      <c r="D72" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>285</v>
+      </c>
+      <c r="B73" t="s">
+        <v>286</v>
+      </c>
+      <c r="C73" t="s">
+        <v>287</v>
+      </c>
+      <c r="D73" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>289</v>
+      </c>
+      <c r="B74" t="s">
+        <v>290</v>
+      </c>
+      <c r="C74" t="s">
+        <v>291</v>
+      </c>
+      <c r="D74" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>293</v>
+      </c>
+      <c r="B75" t="s">
+        <v>294</v>
+      </c>
+      <c r="C75" t="s">
+        <v>295</v>
+      </c>
+      <c r="D75" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>297</v>
+      </c>
+      <c r="B76" t="s">
+        <v>298</v>
+      </c>
+      <c r="C76" t="s">
+        <v>299</v>
+      </c>
+      <c r="D76" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>301</v>
+      </c>
+      <c r="B77" t="s">
+        <v>302</v>
+      </c>
+      <c r="C77" t="s">
+        <v>303</v>
+      </c>
+      <c r="D77" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>305</v>
+      </c>
+      <c r="B78" t="s">
+        <v>306</v>
+      </c>
+      <c r="C78" t="s">
+        <v>307</v>
+      </c>
+      <c r="D78" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>309</v>
+      </c>
+      <c r="B79" t="s">
+        <v>310</v>
+      </c>
+      <c r="C79" t="s">
+        <v>311</v>
+      </c>
+      <c r="D79" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>313</v>
+      </c>
+      <c r="B80" t="s">
+        <v>314</v>
+      </c>
+      <c r="C80" t="s">
+        <v>315</v>
+      </c>
+      <c r="D80" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>317</v>
+      </c>
+      <c r="B81" t="s">
+        <v>318</v>
+      </c>
+      <c r="C81" t="s">
+        <v>319</v>
+      </c>
+      <c r="D81" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>321</v>
+      </c>
+      <c r="B82" t="s">
+        <v>322</v>
+      </c>
+      <c r="C82" t="s">
+        <v>323</v>
+      </c>
+      <c r="D82" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>325</v>
+      </c>
+      <c r="B83" t="s">
+        <v>326</v>
+      </c>
+      <c r="C83" t="s">
+        <v>327</v>
+      </c>
+      <c r="D83" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>329</v>
+      </c>
+      <c r="B84" t="s">
+        <v>330</v>
+      </c>
+      <c r="C84" t="s">
+        <v>331</v>
+      </c>
+      <c r="D84" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>333</v>
+      </c>
+      <c r="B85" t="s">
+        <v>334</v>
+      </c>
+      <c r="C85" t="s">
+        <v>335</v>
+      </c>
+      <c r="D85" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>337</v>
+      </c>
+      <c r="B86" t="s">
+        <v>338</v>
+      </c>
+      <c r="C86" t="s">
+        <v>339</v>
+      </c>
+      <c r="D86" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>341</v>
+      </c>
+      <c r="B87" t="s">
+        <v>342</v>
+      </c>
+      <c r="C87" t="s">
+        <v>343</v>
+      </c>
+      <c r="D87" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>345</v>
+      </c>
+      <c r="B88" t="s">
+        <v>346</v>
+      </c>
+      <c r="C88" t="s">
+        <v>347</v>
+      </c>
+      <c r="D88" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>349</v>
+      </c>
+      <c r="B89" t="s">
+        <v>350</v>
+      </c>
+      <c r="C89" t="s">
+        <v>351</v>
+      </c>
+      <c r="D89" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>353</v>
+      </c>
+      <c r="B90" t="s">
+        <v>354</v>
+      </c>
+      <c r="C90" t="s">
+        <v>355</v>
+      </c>
+      <c r="D90" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>357</v>
+      </c>
+      <c r="B91" t="s">
+        <v>358</v>
+      </c>
+      <c r="C91" t="s">
+        <v>359</v>
+      </c>
+      <c r="D91" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>361</v>
+      </c>
+      <c r="B92" t="s">
+        <v>362</v>
+      </c>
+      <c r="C92" t="s">
+        <v>363</v>
+      </c>
+      <c r="D92" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>365</v>
+      </c>
+      <c r="B93" t="s">
+        <v>366</v>
+      </c>
+      <c r="C93" t="s">
+        <v>367</v>
+      </c>
+      <c r="D93" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>369</v>
+      </c>
+      <c r="B94" t="s">
+        <v>370</v>
+      </c>
+      <c r="C94" t="s">
+        <v>371</v>
+      </c>
+      <c r="D94" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>373</v>
+      </c>
+      <c r="B95" t="s">
+        <v>374</v>
+      </c>
+      <c r="C95" t="s">
+        <v>375</v>
+      </c>
+      <c r="D95" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>377</v>
+      </c>
+      <c r="B96" t="s">
+        <v>378</v>
+      </c>
+      <c r="C96" t="s">
+        <v>379</v>
+      </c>
+      <c r="D96" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>381</v>
+      </c>
+      <c r="B97" t="s">
+        <v>382</v>
+      </c>
+      <c r="C97" t="s">
+        <v>383</v>
+      </c>
+      <c r="D97" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>385</v>
+      </c>
+      <c r="B98" t="s">
+        <v>386</v>
+      </c>
+      <c r="C98" t="s">
+        <v>387</v>
+      </c>
+      <c r="D98" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>389</v>
+      </c>
+      <c r="B99" t="s">
+        <v>390</v>
+      </c>
+      <c r="C99" t="s">
+        <v>391</v>
+      </c>
+      <c r="D99" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>393</v>
+      </c>
+      <c r="B100" t="s">
+        <v>394</v>
+      </c>
+      <c r="C100" t="s">
+        <v>395</v>
+      </c>
+      <c r="D100" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>397</v>
+      </c>
+      <c r="B101" t="s">
+        <v>398</v>
+      </c>
+      <c r="C101" t="s">
+        <v>399</v>
+      </c>
+      <c r="D101" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>401</v>
+      </c>
+      <c r="B102" t="s">
+        <v>402</v>
+      </c>
+      <c r="C102" t="s">
+        <v>403</v>
+      </c>
+      <c r="D102" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>405</v>
+      </c>
+      <c r="B103" t="s">
+        <v>406</v>
+      </c>
+      <c r="C103" t="s">
+        <v>407</v>
+      </c>
+      <c r="D103" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>409</v>
+      </c>
+      <c r="B104" t="s">
+        <v>410</v>
+      </c>
+      <c r="C104" t="s">
+        <v>411</v>
+      </c>
+      <c r="D104" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>413</v>
+      </c>
+      <c r="B105" t="s">
+        <v>414</v>
+      </c>
+      <c r="C105" t="s">
+        <v>415</v>
+      </c>
+      <c r="D105" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>417</v>
+      </c>
+      <c r="B106" t="s">
+        <v>418</v>
+      </c>
+      <c r="C106" t="s">
+        <v>419</v>
+      </c>
+      <c r="D106" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>421</v>
+      </c>
+      <c r="B107" t="s">
+        <v>422</v>
+      </c>
+      <c r="C107" t="s">
+        <v>423</v>
+      </c>
+      <c r="D107" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>425</v>
+      </c>
+      <c r="B108" t="s">
+        <v>426</v>
+      </c>
+      <c r="C108" t="s">
+        <v>427</v>
+      </c>
+      <c r="D108" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>429</v>
+      </c>
+      <c r="B109" t="s">
+        <v>430</v>
+      </c>
+      <c r="C109" t="s">
+        <v>431</v>
+      </c>
+      <c r="D109" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>433</v>
+      </c>
+      <c r="B110" t="s">
+        <v>434</v>
+      </c>
+      <c r="C110" t="s">
+        <v>435</v>
+      </c>
+      <c r="D110" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>437</v>
+      </c>
+      <c r="B111" t="s">
+        <v>438</v>
+      </c>
+      <c r="C111" t="s">
+        <v>439</v>
+      </c>
+      <c r="D111" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>441</v>
+      </c>
+      <c r="B112" t="s">
+        <v>442</v>
+      </c>
+      <c r="C112" t="s">
+        <v>443</v>
+      </c>
+      <c r="D112" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>445</v>
+      </c>
+      <c r="B113" t="s">
+        <v>446</v>
+      </c>
+      <c r="C113" t="s">
+        <v>447</v>
+      </c>
+      <c r="D113" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>449</v>
+      </c>
+      <c r="B114" t="s">
+        <v>450</v>
+      </c>
+      <c r="C114" t="s">
+        <v>443</v>
+      </c>
+      <c r="D114" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>452</v>
+      </c>
+      <c r="B115" t="s">
+        <v>453</v>
+      </c>
+      <c r="C115" t="s">
+        <v>454</v>
+      </c>
+      <c r="D115" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>456</v>
+      </c>
+      <c r="B116" t="s">
+        <v>457</v>
+      </c>
+      <c r="C116" t="s">
+        <v>458</v>
+      </c>
+      <c r="D116" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>460</v>
+      </c>
+      <c r="B117" t="s">
+        <v>461</v>
+      </c>
+      <c r="C117" t="s">
+        <v>462</v>
+      </c>
+      <c r="D117" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>464</v>
+      </c>
+      <c r="B118" t="s">
+        <v>465</v>
+      </c>
+      <c r="C118" t="s">
+        <v>466</v>
+      </c>
+      <c r="D118" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>468</v>
+      </c>
+      <c r="B119" t="s">
+        <v>469</v>
+      </c>
+      <c r="C119" t="s">
+        <v>470</v>
+      </c>
+      <c r="D119" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>472</v>
+      </c>
+      <c r="B120" t="s">
+        <v>473</v>
+      </c>
+      <c r="C120" t="s">
+        <v>474</v>
+      </c>
+      <c r="D120" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>476</v>
+      </c>
+      <c r="B121" t="s">
+        <v>477</v>
+      </c>
+      <c r="C121" t="s">
+        <v>478</v>
+      </c>
+      <c r="D121" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>480</v>
+      </c>
+      <c r="B122" t="s">
+        <v>481</v>
+      </c>
+      <c r="C122" t="s">
+        <v>482</v>
+      </c>
+      <c r="D122" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>484</v>
+      </c>
+      <c r="B123" t="s">
         <v>115</v>
       </c>
-      <c r="B59" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>117</v>
-      </c>
-      <c r="B60" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>119</v>
-      </c>
-      <c r="B61" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>121</v>
-      </c>
-      <c r="B62" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>123</v>
-      </c>
-      <c r="B63" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>125</v>
-      </c>
-      <c r="B64" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>127</v>
-      </c>
-      <c r="B65" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>129</v>
-      </c>
-      <c r="B66" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>131</v>
-      </c>
-      <c r="B67" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>133</v>
-      </c>
-      <c r="B68" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>135</v>
-      </c>
-      <c r="B69" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>137</v>
-      </c>
-      <c r="B70" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
-        <v>139</v>
-      </c>
-      <c r="B71" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
-        <v>141</v>
-      </c>
-      <c r="B72" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
-        <v>143</v>
-      </c>
-      <c r="B73" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>145</v>
-      </c>
-      <c r="B74" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
-        <v>147</v>
-      </c>
-      <c r="B75" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
-        <v>149</v>
-      </c>
-      <c r="B76" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
-        <v>151</v>
-      </c>
-      <c r="B77" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
-        <v>153</v>
-      </c>
-      <c r="B78" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
-        <v>155</v>
-      </c>
-      <c r="B79" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
-        <v>157</v>
-      </c>
-      <c r="B80" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="s">
-        <v>159</v>
-      </c>
-      <c r="B81" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
-        <v>161</v>
-      </c>
-      <c r="B82" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
-        <v>163</v>
-      </c>
-      <c r="B83" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
-        <v>165</v>
-      </c>
-      <c r="B84" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
-        <v>167</v>
-      </c>
-      <c r="B85" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
-        <v>169</v>
-      </c>
-      <c r="B86" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
-        <v>171</v>
-      </c>
-      <c r="B87" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="s">
-        <v>173</v>
-      </c>
-      <c r="B88" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" t="s">
+      <c r="C123" t="s">
+        <v>485</v>
+      </c>
+      <c r="D123" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>487</v>
+      </c>
+      <c r="B124" t="s">
+        <v>488</v>
+      </c>
+      <c r="C124" t="s">
+        <v>489</v>
+      </c>
+      <c r="D124" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>491</v>
+      </c>
+      <c r="B125" t="s">
+        <v>492</v>
+      </c>
+      <c r="C125" t="s">
+        <v>493</v>
+      </c>
+      <c r="D125" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>495</v>
+      </c>
+      <c r="B126" t="s">
+        <v>496</v>
+      </c>
+      <c r="C126" t="s">
+        <v>497</v>
+      </c>
+      <c r="D126" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>499</v>
+      </c>
+      <c r="B127" t="s">
+        <v>500</v>
+      </c>
+      <c r="C127" t="s">
+        <v>501</v>
+      </c>
+      <c r="D127" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>503</v>
+      </c>
+      <c r="B128" t="s">
+        <v>504</v>
+      </c>
+      <c r="C128" t="s">
+        <v>497</v>
+      </c>
+      <c r="D128" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>506</v>
+      </c>
+      <c r="B129" t="s">
+        <v>507</v>
+      </c>
+      <c r="C129" t="s">
+        <v>508</v>
+      </c>
+      <c r="D129" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>510</v>
+      </c>
+      <c r="B130" t="s">
+        <v>511</v>
+      </c>
+      <c r="C130" t="s">
+        <v>512</v>
+      </c>
+      <c r="D130" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>514</v>
+      </c>
+      <c r="B131" t="s">
+        <v>515</v>
+      </c>
+      <c r="C131" t="s">
+        <v>516</v>
+      </c>
+      <c r="D131" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>518</v>
+      </c>
+      <c r="B132" t="s">
+        <v>519</v>
+      </c>
+      <c r="C132" t="s">
+        <v>520</v>
+      </c>
+      <c r="D132" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>522</v>
+      </c>
+      <c r="B133" t="s">
+        <v>523</v>
+      </c>
+      <c r="C133" t="s">
+        <v>524</v>
+      </c>
+      <c r="D133" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>526</v>
+      </c>
+      <c r="B134" t="s">
+        <v>527</v>
+      </c>
+      <c r="C134" t="s">
+        <v>528</v>
+      </c>
+      <c r="D134" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>530</v>
+      </c>
+      <c r="B135" t="s">
+        <v>531</v>
+      </c>
+      <c r="C135" t="s">
+        <v>532</v>
+      </c>
+      <c r="D135" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>534</v>
+      </c>
+      <c r="B136" t="s">
+        <v>531</v>
+      </c>
+      <c r="C136" t="s">
+        <v>535</v>
+      </c>
+      <c r="D136" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>537</v>
+      </c>
+      <c r="B137" t="s">
+        <v>538</v>
+      </c>
+      <c r="C137" t="s">
+        <v>539</v>
+      </c>
+      <c r="D137" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>541</v>
+      </c>
+      <c r="B138" t="s">
+        <v>542</v>
+      </c>
+      <c r="C138" t="s">
+        <v>543</v>
+      </c>
+      <c r="D138" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>545</v>
+      </c>
+      <c r="B139" t="s">
+        <v>546</v>
+      </c>
+      <c r="C139" t="s">
+        <v>547</v>
+      </c>
+      <c r="D139" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>549</v>
+      </c>
+      <c r="B140" t="s">
+        <v>550</v>
+      </c>
+      <c r="C140" t="s">
+        <v>551</v>
+      </c>
+      <c r="D140" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>553</v>
+      </c>
+      <c r="B141" t="s">
+        <v>554</v>
+      </c>
+      <c r="C141" t="s">
+        <v>555</v>
+      </c>
+      <c r="D141" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>557</v>
+      </c>
+      <c r="B142" t="s">
+        <v>558</v>
+      </c>
+      <c r="C142" t="s">
+        <v>559</v>
+      </c>
+      <c r="D142" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>561</v>
+      </c>
+      <c r="B143" t="s">
+        <v>562</v>
+      </c>
+      <c r="C143" t="s">
+        <v>563</v>
+      </c>
+      <c r="D143" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>565</v>
+      </c>
+      <c r="B144" t="s">
+        <v>566</v>
+      </c>
+      <c r="C144" t="s">
+        <v>567</v>
+      </c>
+      <c r="D144" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>569</v>
+      </c>
+      <c r="B145" t="s">
+        <v>570</v>
+      </c>
+      <c r="C145" t="s">
+        <v>571</v>
+      </c>
+      <c r="D145" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>573</v>
+      </c>
+      <c r="B146" t="s">
+        <v>574</v>
+      </c>
+      <c r="C146" t="s">
+        <v>575</v>
+      </c>
+      <c r="D146" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>577</v>
+      </c>
+      <c r="B147" t="s">
+        <v>578</v>
+      </c>
+      <c r="C147" t="s">
+        <v>579</v>
+      </c>
+      <c r="D147" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>581</v>
+      </c>
+      <c r="B148" t="s">
+        <v>582</v>
+      </c>
+      <c r="C148" t="s">
+        <v>583</v>
+      </c>
+      <c r="D148" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>585</v>
+      </c>
+      <c r="B149" t="s">
+        <v>586</v>
+      </c>
+      <c r="C149" t="s">
+        <v>587</v>
+      </c>
+      <c r="D149" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>589</v>
+      </c>
+      <c r="B150" t="s">
+        <v>590</v>
+      </c>
+      <c r="C150" t="s">
+        <v>591</v>
+      </c>
+      <c r="D150" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>593</v>
+      </c>
+      <c r="B151" t="s">
+        <v>594</v>
+      </c>
+      <c r="C151" t="s">
+        <v>595</v>
+      </c>
+      <c r="D151" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>597</v>
+      </c>
+      <c r="B152" t="s">
+        <v>598</v>
+      </c>
+      <c r="C152" t="s">
+        <v>599</v>
+      </c>
+      <c r="D152" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>601</v>
+      </c>
+      <c r="B153" t="s">
+        <v>602</v>
+      </c>
+      <c r="C153" t="s">
+        <v>603</v>
+      </c>
+      <c r="D153" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>605</v>
+      </c>
+      <c r="B154" t="s">
+        <v>606</v>
+      </c>
+      <c r="C154" t="s">
+        <v>607</v>
+      </c>
+      <c r="D154" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>609</v>
+      </c>
+      <c r="B155" t="s">
+        <v>610</v>
+      </c>
+      <c r="C155" t="s">
+        <v>611</v>
+      </c>
+      <c r="D155" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>427</v>
+      </c>
+      <c r="B156" t="s">
+        <v>613</v>
+      </c>
+      <c r="C156" t="s">
+        <v>614</v>
+      </c>
+      <c r="D156" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>616</v>
+      </c>
+      <c r="B157" t="s">
+        <v>617</v>
+      </c>
+      <c r="C157" t="s">
+        <v>618</v>
+      </c>
+      <c r="D157" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>619</v>
+      </c>
+      <c r="B158" t="s">
+        <v>620</v>
+      </c>
+      <c r="C158" t="s">
+        <v>621</v>
+      </c>
+      <c r="D158" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>623</v>
+      </c>
+      <c r="B159" t="s">
+        <v>624</v>
+      </c>
+      <c r="C159" t="s">
+        <v>625</v>
+      </c>
+      <c r="D159" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>627</v>
+      </c>
+      <c r="B160" t="s">
+        <v>628</v>
+      </c>
+      <c r="C160" t="s">
+        <v>629</v>
+      </c>
+      <c r="D160" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>631</v>
+      </c>
+      <c r="B161" t="s">
+        <v>632</v>
+      </c>
+      <c r="C161" t="s">
+        <v>633</v>
+      </c>
+      <c r="D161" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>635</v>
+      </c>
+      <c r="B162" t="s">
+        <v>632</v>
+      </c>
+      <c r="C162" t="s">
+        <v>636</v>
+      </c>
+      <c r="D162" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>638</v>
+      </c>
+      <c r="B163" t="s">
+        <v>639</v>
+      </c>
+      <c r="C163" t="s">
+        <v>387</v>
+      </c>
+      <c r="D163" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>641</v>
+      </c>
+      <c r="B164" t="s">
+        <v>642</v>
+      </c>
+      <c r="C164" t="s">
+        <v>643</v>
+      </c>
+      <c r="D164" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>645</v>
+      </c>
+      <c r="B165" t="s">
+        <v>646</v>
+      </c>
+      <c r="C165" t="s">
+        <v>647</v>
+      </c>
+      <c r="D165" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>649</v>
+      </c>
+      <c r="B166" t="s">
+        <v>650</v>
+      </c>
+      <c r="C166" t="s">
+        <v>651</v>
+      </c>
+      <c r="D166" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>653</v>
+      </c>
+      <c r="B167" t="s">
+        <v>654</v>
+      </c>
+      <c r="C167" t="s">
+        <v>655</v>
+      </c>
+      <c r="D167" t="s">
         <v>175</v>
       </c>
-      <c r="B89" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
-        <v>177</v>
-      </c>
-      <c r="B90" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
-        <v>179</v>
-      </c>
-      <c r="B91" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
-        <v>181</v>
-      </c>
-      <c r="B92" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" t="s">
-        <v>183</v>
-      </c>
-      <c r="B93" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" t="s">
-        <v>185</v>
-      </c>
-      <c r="B94" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" t="s">
-        <v>187</v>
-      </c>
-      <c r="B95" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
-        <v>189</v>
-      </c>
-      <c r="B96" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" t="s">
-        <v>191</v>
-      </c>
-      <c r="B97" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" t="s">
-        <v>193</v>
-      </c>
-      <c r="B98" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" t="s">
-        <v>195</v>
-      </c>
-      <c r="B99" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" t="s">
-        <v>197</v>
-      </c>
-      <c r="B100" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" t="s">
-        <v>199</v>
-      </c>
-      <c r="B101" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" t="s">
-        <v>201</v>
-      </c>
-      <c r="B102" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" t="s">
-        <v>203</v>
-      </c>
-      <c r="B103" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" t="s">
-        <v>205</v>
-      </c>
-      <c r="B104" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" t="s">
-        <v>207</v>
-      </c>
-      <c r="B105" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" t="s">
-        <v>209</v>
-      </c>
-      <c r="B106" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" t="s">
-        <v>211</v>
-      </c>
-      <c r="B107" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" t="s">
-        <v>213</v>
-      </c>
-      <c r="B108" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" t="s">
-        <v>215</v>
-      </c>
-      <c r="B109" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" t="s">
-        <v>217</v>
-      </c>
-      <c r="B110" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" t="s">
-        <v>219</v>
-      </c>
-      <c r="B111" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" t="s">
-        <v>221</v>
-      </c>
-      <c r="B112" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" t="s">
-        <v>223</v>
-      </c>
-      <c r="B113" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" t="s">
-        <v>225</v>
-      </c>
-      <c r="B114" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" t="s">
-        <v>227</v>
-      </c>
-      <c r="B115" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" t="s">
-        <v>229</v>
-      </c>
-      <c r="B116" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" t="s">
-        <v>231</v>
-      </c>
-      <c r="B117" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" t="s">
-        <v>233</v>
-      </c>
-      <c r="B118" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" t="s">
-        <v>235</v>
-      </c>
-      <c r="B119" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" t="s">
-        <v>237</v>
-      </c>
-      <c r="B120" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" t="s">
-        <v>239</v>
-      </c>
-      <c r="B121" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" t="s">
-        <v>241</v>
-      </c>
-      <c r="B122" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" t="s">
-        <v>243</v>
-      </c>
-      <c r="B123" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" t="s">
-        <v>245</v>
-      </c>
-      <c r="B124" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" t="s">
-        <v>247</v>
-      </c>
-      <c r="B125" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" t="s">
-        <v>249</v>
-      </c>
-      <c r="B126" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" t="s">
-        <v>251</v>
-      </c>
-      <c r="B127" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" t="s">
-        <v>253</v>
-      </c>
-      <c r="B128" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" t="s">
-        <v>255</v>
-      </c>
-      <c r="B129" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" t="s">
-        <v>257</v>
-      </c>
-      <c r="B130" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" t="s">
-        <v>259</v>
-      </c>
-      <c r="B131" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" t="s">
-        <v>261</v>
-      </c>
-      <c r="B132" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" t="s">
-        <v>263</v>
-      </c>
-      <c r="B133" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" t="s">
-        <v>265</v>
-      </c>
-      <c r="B134" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" t="s">
-        <v>267</v>
-      </c>
-      <c r="B135" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" t="s">
-        <v>269</v>
-      </c>
-      <c r="B136" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" t="s">
-        <v>270</v>
-      </c>
-      <c r="B137" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" t="s">
-        <v>272</v>
-      </c>
-      <c r="B138" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" t="s">
-        <v>274</v>
-      </c>
-      <c r="B139" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" t="s">
-        <v>276</v>
-      </c>
-      <c r="B140" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" t="s">
-        <v>278</v>
-      </c>
-      <c r="B141" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" t="s">
-        <v>280</v>
-      </c>
-      <c r="B142" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" t="s">
-        <v>282</v>
-      </c>
-      <c r="B143" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" t="s">
-        <v>284</v>
-      </c>
-      <c r="B144" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" t="s">
-        <v>286</v>
-      </c>
-      <c r="B145" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" t="s">
-        <v>288</v>
-      </c>
-      <c r="B146" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" t="s">
-        <v>290</v>
-      </c>
-      <c r="B147" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148" t="s">
-        <v>292</v>
-      </c>
-      <c r="B148" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" t="s">
-        <v>294</v>
-      </c>
-      <c r="B149" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" t="s">
-        <v>296</v>
-      </c>
-      <c r="B150" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" t="s">
-        <v>298</v>
-      </c>
-      <c r="B151" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" t="s">
-        <v>300</v>
-      </c>
-      <c r="B152" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" t="s">
-        <v>302</v>
-      </c>
-      <c r="B153" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="A154" t="s">
-        <v>304</v>
-      </c>
-      <c r="B154" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" t="s">
-        <v>306</v>
-      </c>
-      <c r="B155" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" t="s">
-        <v>308</v>
-      </c>
-      <c r="B156" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" t="s">
-        <v>310</v>
-      </c>
-      <c r="B157" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" t="s">
-        <v>312</v>
-      </c>
-      <c r="B158" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" t="s">
-        <v>314</v>
-      </c>
-      <c r="B159" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
-      <c r="A160" t="s">
-        <v>316</v>
-      </c>
-      <c r="B160" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161" t="s">
-        <v>318</v>
-      </c>
-      <c r="B161" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
-      <c r="A162" t="s">
-        <v>320</v>
-      </c>
-      <c r="B162" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163" t="s">
-        <v>321</v>
-      </c>
-      <c r="B163" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2">
-      <c r="A164" t="s">
-        <v>323</v>
-      </c>
-      <c r="B164" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
-      <c r="A165" t="s">
-        <v>325</v>
-      </c>
-      <c r="B165" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
-      <c r="A166" t="s">
-        <v>327</v>
-      </c>
-      <c r="B166" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
-      <c r="A167" t="s">
-        <v>329</v>
-      </c>
-      <c r="B167" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2">
+    </row>
+    <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>331</v>
+        <v>656</v>
       </c>
       <c r="B168" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
+        <v>657</v>
+      </c>
+      <c r="C168" t="s">
+        <v>658</v>
+      </c>
+      <c r="D168" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>333</v>
+        <v>660</v>
       </c>
       <c r="B169" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2">
+        <v>661</v>
+      </c>
+      <c r="C169" t="s">
+        <v>662</v>
+      </c>
+      <c r="D169" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>335</v>
+        <v>664</v>
       </c>
       <c r="B170" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2">
+        <v>665</v>
+      </c>
+      <c r="C170" t="s">
+        <v>666</v>
+      </c>
+      <c r="D170" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>337</v>
+        <v>668</v>
       </c>
       <c r="B171" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2">
+        <v>669</v>
+      </c>
+      <c r="C171" t="s">
+        <v>670</v>
+      </c>
+      <c r="D171" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>339</v>
+        <v>672</v>
       </c>
       <c r="B172" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2">
+        <v>673</v>
+      </c>
+      <c r="C172" t="s">
+        <v>666</v>
+      </c>
+      <c r="D172" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>341</v>
+        <v>675</v>
       </c>
       <c r="B173" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2">
+        <v>676</v>
+      </c>
+      <c r="C173" t="s">
+        <v>677</v>
+      </c>
+      <c r="D173" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>343</v>
+        <v>679</v>
       </c>
       <c r="B174" t="s">
-        <v>344</v>
+        <v>680</v>
+      </c>
+      <c r="C174" t="s">
+        <v>681</v>
+      </c>
+      <c r="D174" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>345</v>
+        <v>683</v>
       </c>
       <c r="B175" t="s">
-        <v>346</v>
+        <v>684</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>347</v>
+        <v>685</v>
       </c>
       <c r="B176" t="s">
-        <v>348</v>
+        <v>686</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>349</v>
+        <v>687</v>
       </c>
       <c r="B177" t="s">
-        <v>350</v>
+        <v>688</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>351</v>
+        <v>689</v>
       </c>
       <c r="B178" t="s">
-        <v>352</v>
+        <v>690</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>353</v>
+        <v>691</v>
       </c>
       <c r="B179" t="s">
-        <v>354</v>
+        <v>692</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>355</v>
+        <v>693</v>
       </c>
       <c r="B180" t="s">
-        <v>356</v>
+        <v>694</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>357</v>
+        <v>695</v>
       </c>
       <c r="B181" t="s">
-        <v>358</v>
+        <v>696</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>359</v>
+        <v>697</v>
       </c>
       <c r="B182" t="s">
-        <v>360</v>
+        <v>698</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>361</v>
+        <v>699</v>
       </c>
       <c r="B183" t="s">
-        <v>362</v>
+        <v>700</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>363</v>
+        <v>701</v>
       </c>
       <c r="B184" t="s">
-        <v>364</v>
+        <v>702</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>365</v>
+        <v>703</v>
       </c>
       <c r="B185" t="s">
-        <v>366</v>
+        <v>704</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>367</v>
+        <v>705</v>
       </c>
       <c r="B186" t="s">
-        <v>368</v>
+        <v>706</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>369</v>
+        <v>707</v>
       </c>
       <c r="B187" t="s">
-        <v>370</v>
+        <v>708</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>371</v>
+        <v>709</v>
       </c>
       <c r="B188" t="s">
-        <v>372</v>
+        <v>710</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>373</v>
+        <v>711</v>
       </c>
       <c r="B189" t="s">
-        <v>374</v>
+        <v>712</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>375</v>
+        <v>713</v>
       </c>
       <c r="B190" t="s">
-        <v>376</v>
+        <v>714</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>377</v>
+        <v>715</v>
       </c>
       <c r="B191" t="s">
-        <v>378</v>
+        <v>716</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>143</v>
+        <v>285</v>
       </c>
       <c r="B192" t="s">
-        <v>379</v>
+        <v>717</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>380</v>
+        <v>718</v>
       </c>
       <c r="B193" t="s">
-        <v>381</v>
+        <v>719</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>382</v>
+        <v>720</v>
       </c>
       <c r="B194" t="s">
-        <v>383</v>
+        <v>721</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>384</v>
+        <v>722</v>
       </c>
       <c r="B195" t="s">
-        <v>385</v>
+        <v>723</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>386</v>
+        <v>724</v>
       </c>
       <c r="B196" t="s">
-        <v>387</v>
+        <v>725</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>388</v>
+        <v>726</v>
       </c>
       <c r="B197" t="s">
-        <v>389</v>
+        <v>727</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>390</v>
+        <v>728</v>
       </c>
       <c r="B198" t="s">
-        <v>391</v>
+        <v>729</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>392</v>
+        <v>730</v>
       </c>
       <c r="B199" t="s">
-        <v>393</v>
+        <v>731</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>394</v>
+        <v>732</v>
       </c>
       <c r="B200" t="s">
-        <v>395</v>
+        <v>733</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>396</v>
+        <v>734</v>
       </c>
       <c r="B201" t="s">
-        <v>397</v>
+        <v>735</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" t="s">
-        <v>398</v>
+        <v>736</v>
       </c>
       <c r="B202" t="s">
-        <v>399</v>
+        <v>737</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" t="s">
-        <v>400</v>
+        <v>738</v>
       </c>
       <c r="B203" t="s">
-        <v>401</v>
+        <v>739</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" t="s">
-        <v>402</v>
+        <v>740</v>
       </c>
       <c r="B204" t="s">
-        <v>403</v>
+        <v>741</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" t="s">
-        <v>404</v>
+        <v>742</v>
       </c>
       <c r="B205" t="s">
-        <v>405</v>
+        <v>743</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" t="s">
-        <v>406</v>
+        <v>744</v>
       </c>
       <c r="B206" t="s">
-        <v>407</v>
+        <v>745</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" t="s">
-        <v>408</v>
+        <v>746</v>
       </c>
       <c r="B207" t="s">
-        <v>409</v>
+        <v>747</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" t="s">
-        <v>410</v>
+        <v>748</v>
       </c>
       <c r="B208" t="s">
-        <v>411</v>
+        <v>749</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" t="s">
-        <v>412</v>
+        <v>750</v>
       </c>
       <c r="B209" t="s">
-        <v>413</v>
+        <v>751</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" t="s">
-        <v>414</v>
+        <v>752</v>
       </c>
       <c r="B210" t="s">
-        <v>415</v>
+        <v>753</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" t="s">
-        <v>416</v>
+        <v>754</v>
       </c>
       <c r="B211" t="s">
-        <v>417</v>
+        <v>755</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" t="s">
-        <v>418</v>
+        <v>756</v>
       </c>
       <c r="B212" t="s">
-        <v>419</v>
+        <v>757</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" t="s">
-        <v>420</v>
+        <v>758</v>
       </c>
       <c r="B213" t="s">
-        <v>421</v>
+        <v>759</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" t="s">
-        <v>422</v>
+        <v>760</v>
       </c>
       <c r="B214" t="s">
-        <v>423</v>
+        <v>761</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" t="s">
-        <v>424</v>
+        <v>762</v>
       </c>
       <c r="B215" t="s">
-        <v>425</v>
+        <v>763</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" t="s">
-        <v>426</v>
+        <v>764</v>
       </c>
       <c r="B216" t="s">
-        <v>427</v>
+        <v>765</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" t="s">
-        <v>428</v>
+        <v>766</v>
       </c>
       <c r="B217" t="s">
-        <v>429</v>
+        <v>767</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" t="s">
-        <v>430</v>
+        <v>768</v>
       </c>
       <c r="B218" t="s">
-        <v>431</v>
+        <v>769</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" t="s">
-        <v>432</v>
+        <v>770</v>
       </c>
       <c r="B219" t="s">
-        <v>433</v>
+        <v>771</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" t="s">
-        <v>434</v>
+        <v>772</v>
       </c>
       <c r="B220" t="s">
-        <v>435</v>
+        <v>773</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" t="s">
-        <v>436</v>
+        <v>774</v>
       </c>
       <c r="B221" t="s">
-        <v>437</v>
+        <v>775</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" t="s">
-        <v>438</v>
+        <v>776</v>
       </c>
       <c r="B222" t="s">
-        <v>439</v>
+        <v>777</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" t="s">
-        <v>440</v>
+        <v>778</v>
       </c>
       <c r="B223" t="s">
-        <v>441</v>
+        <v>779</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" t="s">
-        <v>442</v>
+        <v>780</v>
       </c>
       <c r="B224" t="s">
-        <v>443</v>
+        <v>781</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" t="s">
-        <v>444</v>
+        <v>782</v>
       </c>
       <c r="B225" t="s">
-        <v>445</v>
+        <v>783</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" t="s">
-        <v>446</v>
+        <v>784</v>
       </c>
       <c r="B226" t="s">
-        <v>447</v>
+        <v>785</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" t="s">
-        <v>448</v>
+        <v>786</v>
       </c>
       <c r="B227" t="s">
-        <v>449</v>
+        <v>787</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" t="s">
-        <v>450</v>
+        <v>788</v>
       </c>
       <c r="B228" t="s">
-        <v>451</v>
+        <v>789</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" t="s">
-        <v>452</v>
+        <v>790</v>
       </c>
       <c r="B229" t="s">
-        <v>453</v>
+        <v>791</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" t="s">
-        <v>454</v>
+        <v>792</v>
       </c>
       <c r="B230" t="s">
-        <v>455</v>
+        <v>793</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" t="s">
-        <v>456</v>
+        <v>794</v>
       </c>
       <c r="B231" t="s">
-        <v>457</v>
+        <v>795</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" t="s">
-        <v>458</v>
+        <v>796</v>
       </c>
       <c r="B232" t="s">
-        <v>459</v>
+        <v>797</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" t="s">
-        <v>460</v>
+        <v>798</v>
       </c>
       <c r="B233" t="s">
-        <v>461</v>
+        <v>799</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" t="s">
-        <v>462</v>
+        <v>800</v>
       </c>
       <c r="B234" t="s">
-        <v>463</v>
+        <v>801</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" t="s">
-        <v>464</v>
+        <v>802</v>
       </c>
       <c r="B235" t="s">
-        <v>465</v>
+        <v>803</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" t="s">
-        <v>466</v>
+        <v>804</v>
       </c>
       <c r="B236" t="s">
-        <v>467</v>
+        <v>805</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" t="s">
-        <v>468</v>
+        <v>806</v>
       </c>
       <c r="B237" t="s">
-        <v>469</v>
+        <v>807</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" t="s">
-        <v>470</v>
+        <v>808</v>
       </c>
       <c r="B238" t="s">
-        <v>471</v>
+        <v>809</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" t="s">
-        <v>472</v>
+        <v>810</v>
       </c>
       <c r="B239" t="s">
-        <v>473</v>
+        <v>811</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" t="s">
-        <v>474</v>
+        <v>812</v>
       </c>
       <c r="B240" t="s">
-        <v>475</v>
+        <v>813</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" t="s">
-        <v>476</v>
+        <v>814</v>
       </c>
       <c r="B241" t="s">
-        <v>477</v>
+        <v>815</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" t="s">
-        <v>478</v>
+        <v>816</v>
       </c>
       <c r="B242" t="s">
-        <v>479</v>
+        <v>817</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" t="s">
-        <v>480</v>
+        <v>818</v>
       </c>
       <c r="B243" t="s">
-        <v>481</v>
+        <v>819</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" t="s">
-        <v>482</v>
+        <v>820</v>
       </c>
       <c r="B244" t="s">
-        <v>483</v>
+        <v>821</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" t="s">
-        <v>484</v>
+        <v>822</v>
       </c>
       <c r="B245" t="s">
-        <v>485</v>
+        <v>823</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" t="s">
-        <v>486</v>
+        <v>824</v>
       </c>
       <c r="B246" t="s">
-        <v>487</v>
+        <v>825</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" t="s">
-        <v>488</v>
+        <v>826</v>
       </c>
       <c r="B247" t="s">
-        <v>489</v>
+        <v>827</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" t="s">
-        <v>207</v>
+        <v>413</v>
       </c>
       <c r="B248" t="s">
-        <v>490</v>
+        <v>828</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" t="s">
-        <v>491</v>
+        <v>829</v>
       </c>
       <c r="B249" t="s">
-        <v>492</v>
+        <v>830</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" t="s">
-        <v>493</v>
+        <v>831</v>
       </c>
       <c r="B250" t="s">
-        <v>494</v>
+        <v>832</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" t="s">
-        <v>495</v>
+        <v>833</v>
       </c>
       <c r="B251" t="s">
-        <v>496</v>
+        <v>834</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" t="s">
-        <v>497</v>
+        <v>835</v>
       </c>
       <c r="B252" t="s">
-        <v>498</v>
+        <v>836</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" t="s">
-        <v>499</v>
+        <v>837</v>
       </c>
       <c r="B253" t="s">
-        <v>500</v>
+        <v>838</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" t="s">
-        <v>501</v>
+        <v>839</v>
       </c>
       <c r="B254" t="s">
-        <v>502</v>
+        <v>840</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" t="s">
-        <v>503</v>
+        <v>841</v>
       </c>
       <c r="B255" t="s">
-        <v>504</v>
+        <v>842</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" t="s">
-        <v>505</v>
+        <v>843</v>
       </c>
       <c r="B256" t="s">
-        <v>506</v>
+        <v>844</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" t="s">
-        <v>507</v>
+        <v>845</v>
       </c>
       <c r="B257" t="s">
-        <v>508</v>
+        <v>846</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" t="s">
-        <v>509</v>
+        <v>847</v>
       </c>
       <c r="B258" t="s">
-        <v>510</v>
+        <v>848</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" t="s">
-        <v>511</v>
+        <v>849</v>
       </c>
       <c r="B259" t="s">
-        <v>512</v>
+        <v>850</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" t="s">
-        <v>513</v>
+        <v>851</v>
       </c>
       <c r="B260" t="s">
-        <v>514</v>
+        <v>852</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" t="s">
-        <v>515</v>
+        <v>853</v>
       </c>
       <c r="B261" t="s">
-        <v>516</v>
+        <v>854</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" t="s">
-        <v>517</v>
+        <v>855</v>
       </c>
       <c r="B262" t="s">
-        <v>518</v>
+        <v>856</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" t="s">
-        <v>519</v>
+        <v>857</v>
       </c>
       <c r="B263" t="s">
-        <v>520</v>
+        <v>858</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" t="s">
-        <v>521</v>
+        <v>859</v>
       </c>
       <c r="B264" t="s">
-        <v>522</v>
+        <v>860</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" t="s">
-        <v>523</v>
+        <v>861</v>
       </c>
       <c r="B265" t="s">
-        <v>524</v>
+        <v>862</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" t="s">
-        <v>525</v>
+        <v>863</v>
       </c>
       <c r="B266" t="s">
-        <v>526</v>
+        <v>864</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" t="s">
-        <v>527</v>
+        <v>865</v>
       </c>
       <c r="B267" t="s">
-        <v>528</v>
+        <v>866</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" t="s">
-        <v>529</v>
+        <v>867</v>
       </c>
       <c r="B268" t="s">
-        <v>530</v>
+        <v>868</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" t="s">
-        <v>531</v>
+        <v>869</v>
       </c>
       <c r="B269" t="s">
-        <v>532</v>
+        <v>870</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" t="s">
-        <v>533</v>
+        <v>871</v>
       </c>
       <c r="B270" t="s">
-        <v>534</v>
+        <v>872</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" t="s">
-        <v>535</v>
+        <v>873</v>
       </c>
       <c r="B271" t="s">
-        <v>536</v>
+        <v>874</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" t="s">
-        <v>537</v>
+        <v>875</v>
       </c>
       <c r="B272" t="s">
-        <v>538</v>
+        <v>876</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" t="s">
-        <v>539</v>
+        <v>877</v>
       </c>
       <c r="B273" t="s">
-        <v>540</v>
+        <v>878</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" t="s">
-        <v>541</v>
+        <v>879</v>
       </c>
       <c r="B274" t="s">
-        <v>542</v>
+        <v>880</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" t="s">
-        <v>543</v>
+        <v>881</v>
       </c>
       <c r="B275" t="s">
-        <v>544</v>
+        <v>882</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" t="s">
-        <v>545</v>
+        <v>883</v>
       </c>
       <c r="B276" t="s">
-        <v>546</v>
+        <v>884</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" t="s">
-        <v>547</v>
+        <v>885</v>
       </c>
       <c r="B277" t="s">
-        <v>548</v>
+        <v>886</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" t="s">
-        <v>549</v>
+        <v>887</v>
       </c>
       <c r="B278" t="s">
-        <v>550</v>
+        <v>888</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" t="s">
-        <v>551</v>
+        <v>889</v>
       </c>
       <c r="B279" t="s">
-        <v>552</v>
+        <v>890</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" t="s">
-        <v>553</v>
+        <v>891</v>
       </c>
       <c r="B280" t="s">
-        <v>554</v>
+        <v>892</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" t="s">
-        <v>555</v>
+        <v>893</v>
       </c>
       <c r="B281" t="s">
-        <v>556</v>
+        <v>894</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" t="s">
-        <v>557</v>
+        <v>895</v>
       </c>
       <c r="B282" t="s">
-        <v>558</v>
+        <v>896</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" t="s">
-        <v>559</v>
+        <v>897</v>
       </c>
       <c r="B283" t="s">
-        <v>560</v>
+        <v>898</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" t="s">
-        <v>561</v>
+        <v>899</v>
       </c>
       <c r="B284" t="s">
-        <v>562</v>
+        <v>900</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" t="s">
-        <v>563</v>
+        <v>901</v>
       </c>
       <c r="B285" t="s">
-        <v>564</v>
+        <v>902</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" t="s">
-        <v>565</v>
+        <v>903</v>
       </c>
       <c r="B286" t="s">
-        <v>566</v>
+        <v>904</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" t="s">
-        <v>567</v>
+        <v>905</v>
       </c>
       <c r="B287" t="s">
-        <v>568</v>
+        <v>906</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" t="s">
-        <v>569</v>
+        <v>907</v>
       </c>
       <c r="B288" t="s">
-        <v>570</v>
+        <v>908</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" t="s">
-        <v>571</v>
+        <v>909</v>
       </c>
       <c r="B289" t="s">
-        <v>572</v>
+        <v>910</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" t="s">
-        <v>573</v>
+        <v>911</v>
       </c>
       <c r="B290" t="s">
-        <v>574</v>
+        <v>912</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" t="s">
-        <v>575</v>
+        <v>913</v>
       </c>
       <c r="B291" t="s">
-        <v>576</v>
+        <v>914</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" t="s">
-        <v>577</v>
+        <v>915</v>
       </c>
       <c r="B292" t="s">
-        <v>578</v>
+        <v>916</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" t="s">
-        <v>579</v>
+        <v>917</v>
       </c>
       <c r="B293" t="s">
-        <v>580</v>
+        <v>918</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" t="s">
-        <v>581</v>
+        <v>919</v>
       </c>
       <c r="B294" t="s">
-        <v>582</v>
+        <v>920</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" t="s">
-        <v>583</v>
+        <v>921</v>
       </c>
       <c r="B295" t="s">
-        <v>584</v>
+        <v>922</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" t="s">
-        <v>585</v>
+        <v>923</v>
       </c>
       <c r="B296" t="s">
-        <v>586</v>
+        <v>924</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" t="s">
-        <v>587</v>
+        <v>925</v>
       </c>
       <c r="B297" t="s">
-        <v>588</v>
+        <v>926</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" t="s">
-        <v>589</v>
+        <v>927</v>
       </c>
       <c r="B298" t="s">
-        <v>590</v>
+        <v>928</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" t="s">
-        <v>591</v>
+        <v>929</v>
       </c>
       <c r="B299" t="s">
-        <v>592</v>
+        <v>930</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" t="s">
-        <v>593</v>
+        <v>931</v>
       </c>
       <c r="B300" t="s">
-        <v>594</v>
+        <v>932</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" t="s">
-        <v>595</v>
+        <v>933</v>
       </c>
       <c r="B301" t="s">
-        <v>596</v>
+        <v>934</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" t="s">
-        <v>597</v>
+        <v>935</v>
       </c>
       <c r="B302" t="s">
-        <v>598</v>
+        <v>936</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" t="s">
-        <v>599</v>
+        <v>937</v>
       </c>
       <c r="B303" t="s">
-        <v>600</v>
+        <v>938</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" t="s">
-        <v>601</v>
+        <v>939</v>
       </c>
       <c r="B304" t="s">
-        <v>602</v>
+        <v>940</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" t="s">
-        <v>603</v>
+        <v>941</v>
       </c>
       <c r="B305" t="s">
-        <v>604</v>
+        <v>942</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" t="s">
-        <v>605</v>
+        <v>943</v>
       </c>
       <c r="B306" t="s">
-        <v>606</v>
+        <v>944</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" t="s">
-        <v>607</v>
+        <v>945</v>
       </c>
       <c r="B307" t="s">
-        <v>608</v>
+        <v>946</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" t="s">
-        <v>609</v>
+        <v>947</v>
       </c>
       <c r="B308" t="s">
-        <v>610</v>
+        <v>948</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" t="s">
-        <v>611</v>
+        <v>949</v>
       </c>
       <c r="B309" t="s">
-        <v>612</v>
+        <v>950</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" t="s">
-        <v>613</v>
+        <v>951</v>
       </c>
       <c r="B310" t="s">
-        <v>614</v>
+        <v>952</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" t="s">
-        <v>615</v>
+        <v>953</v>
       </c>
       <c r="B311" t="s">
-        <v>616</v>
+        <v>954</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" t="s">
-        <v>617</v>
+        <v>955</v>
       </c>
       <c r="B312" t="s">
-        <v>618</v>
+        <v>956</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" t="s">
-        <v>619</v>
+        <v>957</v>
       </c>
       <c r="B313" t="s">
-        <v>620</v>
+        <v>958</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" t="s">
-        <v>621</v>
+        <v>959</v>
       </c>
       <c r="B314" t="s">
-        <v>622</v>
+        <v>960</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" t="s">
-        <v>623</v>
+        <v>961</v>
       </c>
       <c r="B315" t="s">
-        <v>624</v>
+        <v>962</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" t="s">
-        <v>625</v>
+        <v>963</v>
       </c>
       <c r="B316" t="s">
-        <v>626</v>
+        <v>964</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" t="s">
-        <v>627</v>
+        <v>965</v>
       </c>
       <c r="B317" t="s">
-        <v>628</v>
+        <v>966</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" t="s">
-        <v>629</v>
+        <v>967</v>
       </c>
       <c r="B318" t="s">
-        <v>630</v>
+        <v>968</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" t="s">
-        <v>631</v>
+        <v>969</v>
       </c>
       <c r="B319" t="s">
-        <v>632</v>
+        <v>970</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" t="s">
-        <v>633</v>
+        <v>971</v>
       </c>
       <c r="B320" t="s">
-        <v>634</v>
+        <v>972</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" t="s">
-        <v>635</v>
+        <v>973</v>
       </c>
       <c r="B321" t="s">
-        <v>636</v>
+        <v>974</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" t="s">
-        <v>637</v>
+        <v>975</v>
       </c>
       <c r="B322" t="s">
-        <v>638</v>
+        <v>976</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" t="s">
-        <v>639</v>
+        <v>977</v>
       </c>
       <c r="B323" t="s">
-        <v>640</v>
+        <v>978</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" t="s">
-        <v>641</v>
+        <v>979</v>
       </c>
       <c r="B324" t="s">
-        <v>642</v>
+        <v>980</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" t="s">
-        <v>643</v>
+        <v>981</v>
       </c>
       <c r="B325" t="s">
-        <v>644</v>
+        <v>982</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" t="s">
-        <v>645</v>
+        <v>983</v>
       </c>
       <c r="B326" t="s">
-        <v>646</v>
+        <v>984</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" t="s">
-        <v>647</v>
+        <v>985</v>
       </c>
       <c r="B327" t="s">
-        <v>648</v>
+        <v>986</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" t="s">
-        <v>649</v>
+        <v>987</v>
       </c>
       <c r="B328" t="s">
-        <v>650</v>
+        <v>988</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" t="s">
-        <v>651</v>
+        <v>989</v>
       </c>
       <c r="B329" t="s">
-        <v>652</v>
+        <v>990</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" t="s">
-        <v>653</v>
+        <v>991</v>
       </c>
       <c r="B330" t="s">
-        <v>654</v>
+        <v>992</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" t="s">
-        <v>655</v>
+        <v>595</v>
       </c>
       <c r="B331" t="s">
-        <v>656</v>
+        <v>993</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" t="s">
-        <v>657</v>
+        <v>994</v>
       </c>
       <c r="B332" t="s">
-        <v>658</v>
+        <v>995</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" t="s">
-        <v>659</v>
+        <v>996</v>
       </c>
       <c r="B333" t="s">
-        <v>660</v>
+        <v>997</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" t="s">
+        <v>998</v>
+      </c>
+      <c r="B334" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B335" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B336" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B337" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B338" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B339" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B340" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B341" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B342" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B343" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B344" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B345" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B346" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B347" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B348" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B349" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350" t="s">
+        <v>879</v>
+      </c>
+      <c r="B350" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B351" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B352" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B353" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B354" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B355" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B356" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B357" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B358" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B359" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B360" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B361" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B362" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B363" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364" t="s">
+        <v>666</v>
+      </c>
+      <c r="B364" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B365" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B366" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B367" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B368" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B369" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B370" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B371" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B372" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B373" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B374" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B375" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B376" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B377" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378" t="s">
+        <v>873</v>
+      </c>
+      <c r="B378" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B379" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="A380" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B380" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="A381" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B381" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B382" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2">
+      <c r="A383" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B383" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="A384" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B384" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2">
+      <c r="A385" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B385" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B386" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2">
+      <c r="A387" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B387" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2">
+      <c r="A388" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B388" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2">
+      <c r="A389" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B389" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2">
+      <c r="A390" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B390" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2">
+      <c r="A391" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B391" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2">
+      <c r="A392" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B392" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2">
+      <c r="A393" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B393" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="A394" t="s">
+        <v>395</v>
+      </c>
+      <c r="B394" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2">
+      <c r="A395" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B395" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2">
+      <c r="A396" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B396" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2">
+      <c r="A397" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B397" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2">
+      <c r="A398" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B398" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2">
+      <c r="A399" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B399" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2">
+      <c r="A400" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B400" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2">
+      <c r="A401" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B401" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2">
+      <c r="A402" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B402" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2">
+      <c r="A403" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B403" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2">
+      <c r="A404" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B404" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2">
+      <c r="A405" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B405" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2">
+      <c r="A406" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B406" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2">
+      <c r="A407" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B407" t="s">
+        <v>1140</v>
       </c>
     </row>
   </sheetData>
